--- a/Technology/Hardware/Livent.xlsx
+++ b/Technology/Hardware/Livent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0D4EF9-1955-8045-9D35-CBDC229626E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA062B5B-6612-4B46-8C1E-9CF47E4C73CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="162">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -550,17 +550,24 @@
   </si>
   <si>
     <t>Share Dilution (5yr)</t>
+  </si>
+  <si>
+    <t>Forward P/S</t>
+  </si>
+  <si>
+    <t>Forward P/E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="168" formatCode="0.0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -729,7 +736,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -893,12 +900,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -939,9 +955,6 @@
     <xf numFmtId="9" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -950,12 +963,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1015,6 +1022,27 @@
     <xf numFmtId="10" fontId="12" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1033,11 +1061,8 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2271,11 +2296,9 @@
     <v>Powered by Refinitiv</v>
     <v>36.380000000000003</v>
     <v>18.260000000000002</v>
-    <v>1.8115000000000001</v>
-    <v>-1.19</v>
-    <v>-5.4462000000000003E-2</v>
-    <v>0.09</v>
-    <v>4.3559999999999996E-3</v>
+    <v>1.7907</v>
+    <v>-0.86</v>
+    <v>-3.5145000000000003E-2</v>
     <v>USD</v>
     <v>Livent Corporation is a fully integrated lithium company. The Company manufactures lithium for use in a range of lithium products, which are used primarily in lithium-based batteries, specialty polymers and chemical synthesis applications. It is focused on supplying high performance lithium compounds to the electric vehicles (EV) and broader battery markets. The Company also supplies butyllithium, which is used in the production of polymers and pharmaceutical products, as well as a range of specialty lithium compounds including high purity lithium metal, which is used in non-rechargeable batteries and in the production of lightweight materials for aerospace applications. Its product category includes Lithium Hydroxide, Butyllithium, High Purity Lithium Metal, Lithium Carbonate, and Lithium Chloride. It serves a variety of industrial, pharmaceutical, aerospace, electronics, agricultural and polymer applications.</v>
     <v>1350</v>
@@ -2283,25 +2306,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1818 MARKET STREET, PHILADELPHIA, PA, 19103 US</v>
-    <v>21.6</v>
+    <v>24.39</v>
     <v>Chemicals</v>
     <v>Stock</v>
-    <v>45037.999773541407</v>
+    <v>45071.995120520311</v>
     <v>0</v>
-    <v>19.43</v>
-    <v>3711673000</v>
+    <v>23.07</v>
+    <v>4242431319</v>
     <v>LIVENT CORPORATION</v>
     <v>LIVENT CORPORATION</v>
-    <v>21.6</v>
-    <v>16.1859</v>
-    <v>21.85</v>
-    <v>20.66</v>
-    <v>20.75</v>
-    <v>179655000</v>
+    <v>24.39</v>
+    <v>14.567299999999999</v>
+    <v>24.47</v>
+    <v>23.61</v>
+    <v>179687900</v>
     <v>LTHM</v>
     <v>LIVENT CORPORATION (XNYS:LTHM)</v>
-    <v>12134518</v>
-    <v>2594080</v>
+    <v>120</v>
+    <v>4469741</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -2333,8 +2355,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2355,7 +2375,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2372,7 +2391,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2383,16 +2402,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2458,19 +2474,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2515,9 +2525,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2525,9 +2532,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2889,10 +2893,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E95" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M94" sqref="M94"/>
+      <selection pane="bottomRight" activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2930,19 +2934,19 @@
       <c r="I1" s="8">
         <v>2022</v>
       </c>
-      <c r="J1" s="26">
+      <c r="J1" s="25">
         <v>2023</v>
       </c>
-      <c r="K1" s="26">
+      <c r="K1" s="25">
         <v>2024</v>
       </c>
-      <c r="L1" s="26">
+      <c r="L1" s="25">
         <v>2025</v>
       </c>
-      <c r="M1" s="26">
+      <c r="M1" s="25">
         <v>2026</v>
       </c>
-      <c r="N1" s="26">
+      <c r="N1" s="25">
         <v>2027</v>
       </c>
     </row>
@@ -3018,20 +3022,20 @@
       <c r="I3" s="1">
         <v>813200000</v>
       </c>
-      <c r="J3" s="27">
-        <v>1079000000</v>
-      </c>
-      <c r="K3" s="27">
-        <v>1399000000</v>
-      </c>
-      <c r="L3" s="27">
-        <v>1443000000</v>
-      </c>
-      <c r="M3" s="27">
+      <c r="J3" s="26">
+        <v>1081000000</v>
+      </c>
+      <c r="K3" s="26">
+        <v>1394000000</v>
+      </c>
+      <c r="L3" s="26">
+        <v>1465000000</v>
+      </c>
+      <c r="M3" s="26">
         <v>1489000000</v>
       </c>
-      <c r="N3" s="27">
-        <v>1683000000</v>
+      <c r="N3" s="26">
+        <v>2196000000</v>
       </c>
       <c r="O3" s="19" t="s">
         <v>109</v>
@@ -3081,23 +3085,23 @@
       </c>
       <c r="J4" s="16">
         <f t="shared" si="0"/>
-        <v>0.32685686178061979</v>
+        <v>0.32931628135759961</v>
       </c>
       <c r="K4" s="16">
         <f t="shared" si="0"/>
-        <v>0.29657089898053757</v>
+        <v>0.28954671600370019</v>
       </c>
       <c r="L4" s="16">
         <f t="shared" si="0"/>
-        <v>3.1451036454610337E-2</v>
+        <v>5.0932568149210988E-2</v>
       </c>
       <c r="M4" s="16">
         <f t="shared" si="0"/>
-        <v>3.1878031878031843E-2</v>
+        <v>1.6382252559727029E-2</v>
       </c>
       <c r="N4" s="16">
         <f t="shared" si="0"/>
-        <v>0.13028878441907321</v>
+        <v>0.47481531229012752</v>
       </c>
       <c r="O4" s="17">
         <f>(I4+H4+G4)/3</f>
@@ -3487,7 +3491,7 @@
         <f>I22/(I72+I56+I61)</f>
         <v>0.19607140724819391</v>
       </c>
-      <c r="R13" s="22">
+      <c r="R13" s="60">
         <f>I67/I72</f>
         <v>0.27257501744591767</v>
       </c>
@@ -3590,24 +3594,24 @@
       <c r="I16" s="1">
         <v>484800000</v>
       </c>
-      <c r="O16" s="28">
+      <c r="O16" s="27">
         <f>(I35+H35+G35+F35+E35)/5</f>
         <v>8.3402160590696592E-2</v>
       </c>
-      <c r="P16" s="29">
+      <c r="P16" s="58">
         <f>Q101/I3</f>
-        <v>4.5642806197737338</v>
-      </c>
-      <c r="Q16" s="29">
+        <v>5.2169593199704867</v>
+      </c>
+      <c r="Q16" s="58">
         <f>Q101/I28</f>
-        <v>13.571016453382084</v>
-      </c>
-      <c r="R16" s="30">
+        <v>15.511631879341865</v>
+      </c>
+      <c r="R16" s="59">
         <f>Q101/I106</f>
-        <v>8.1629052122278427</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+        <v>9.3301766417418079</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3636,7 +3640,7 @@
         <v>328400000</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3667,8 +3671,14 @@
       <c r="O18" s="19" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="P18" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q18" s="20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3696,12 +3706,35 @@
       <c r="I19" s="10">
         <v>663800000</v>
       </c>
-      <c r="O19" s="31">
+      <c r="J19" s="61">
+        <v>570500000</v>
+      </c>
+      <c r="K19" s="61">
+        <v>670000000</v>
+      </c>
+      <c r="L19" s="61">
+        <v>786000000</v>
+      </c>
+      <c r="M19" s="61">
+        <v>914000000</v>
+      </c>
+      <c r="N19" s="61">
+        <v>1924000000</v>
+      </c>
+      <c r="O19" s="28">
         <f>I40-I56-I61</f>
         <v>-52900000</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P19" s="58">
+        <f>Q101/J3</f>
+        <v>3.9245433108233119</v>
+      </c>
+      <c r="Q19" s="65">
+        <f>Q101/J28</f>
+        <v>9.9354363442622944</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>101</v>
       </c>
@@ -3734,9 +3767,28 @@
         <f t="shared" si="3"/>
         <v>7.4345616264294794</v>
       </c>
-      <c r="J20" s="15"/>
-    </row>
-    <row r="21" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="J20" s="16">
+        <f t="shared" ref="J20" si="4">(J19/I19)-1</f>
+        <v>-0.14055438385055741</v>
+      </c>
+      <c r="K20" s="16">
+        <f t="shared" ref="K20" si="5">(K19/J19)-1</f>
+        <v>0.17440841367221727</v>
+      </c>
+      <c r="L20" s="16">
+        <f t="shared" ref="L20" si="6">(L19/K19)-1</f>
+        <v>0.17313432835820897</v>
+      </c>
+      <c r="M20" s="16">
+        <f t="shared" ref="M20" si="7">(M19/L19)-1</f>
+        <v>0.1628498727735368</v>
+      </c>
+      <c r="N20" s="16">
+        <f t="shared" ref="N20" si="8">(N19/M19)-1</f>
+        <v>1.1050328227571118</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3764,8 +3816,28 @@
       <c r="I21" s="2">
         <v>0.81630000000000003</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="J21" s="62">
+        <f t="shared" ref="J21:M21" si="9">J19/J3</f>
+        <v>0.52775208140610541</v>
+      </c>
+      <c r="K21" s="62">
+        <f t="shared" si="9"/>
+        <v>0.48063127690100432</v>
+      </c>
+      <c r="L21" s="62">
+        <f t="shared" si="9"/>
+        <v>0.53651877133105808</v>
+      </c>
+      <c r="M21" s="62">
+        <f t="shared" si="9"/>
+        <v>0.61383478844862327</v>
+      </c>
+      <c r="N21" s="62">
+        <f>N19/N3</f>
+        <v>0.87613843351548271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3794,7 +3866,7 @@
         <v>328400000</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3823,7 +3895,7 @@
         <v>0.40379999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3852,7 +3924,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3881,7 +3953,7 @@
         <v>335400000</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -3910,7 +3982,7 @@
         <v>0.41239999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -3939,7 +4011,7 @@
         <v>61900000</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -3967,8 +4039,23 @@
       <c r="I28" s="11">
         <v>273500000</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="63">
+        <v>427000000</v>
+      </c>
+      <c r="K28" s="63">
+        <v>521000000</v>
+      </c>
+      <c r="L28" s="63">
+        <v>644000000</v>
+      </c>
+      <c r="M28" s="63">
+        <v>687000000</v>
+      </c>
+      <c r="N28" s="63">
+        <v>1698000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>102</v>
       </c>
@@ -3986,24 +4073,43 @@
         <v>1.9881516587677726</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:I29" si="4">(F28/E28)-1</f>
+        <f t="shared" ref="F29:I29" si="10">(F28/E28)-1</f>
         <v>-0.60190325138778755</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-1.3764940239043826</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-1.0317460317460316</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>454.83333333333331</v>
       </c>
-      <c r="J29" s="15"/>
-    </row>
-    <row r="30" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="J29" s="16">
+        <f t="shared" ref="J29" si="11">(J28/I28)-1</f>
+        <v>0.5612431444241317</v>
+      </c>
+      <c r="K29" s="16">
+        <f t="shared" ref="K29" si="12">(K28/J28)-1</f>
+        <v>0.22014051522248246</v>
+      </c>
+      <c r="L29" s="16">
+        <f t="shared" ref="L29" si="13">(L28/K28)-1</f>
+        <v>0.23608445297504788</v>
+      </c>
+      <c r="M29" s="16">
+        <f t="shared" ref="M29" si="14">(M28/L28)-1</f>
+        <v>6.6770186335403769E-2</v>
+      </c>
+      <c r="N29" s="16">
+        <f t="shared" ref="N29" si="15">(N28/M28)-1</f>
+        <v>1.4716157205240177</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -4031,8 +4137,28 @@
       <c r="I30" s="2">
         <v>0.33629999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="J30" s="64">
+        <f>J28/J3</f>
+        <v>0.39500462534690101</v>
+      </c>
+      <c r="K30" s="64">
+        <f t="shared" ref="K30:N30" si="16">K28/K3</f>
+        <v>0.37374461979913914</v>
+      </c>
+      <c r="L30" s="64">
+        <f t="shared" si="16"/>
+        <v>0.4395904436860068</v>
+      </c>
+      <c r="M30" s="64">
+        <f t="shared" si="16"/>
+        <v>0.4613834788448623</v>
+      </c>
+      <c r="N30" s="64">
+        <f t="shared" si="16"/>
+        <v>0.77322404371584696</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -4061,7 +4187,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -4153,32 +4279,32 @@
         <v>103</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="23" t="e">
+      <c r="C35" s="22" t="e">
         <f>(C34-B34)/B34</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D35" s="23">
-        <f t="shared" ref="D35:I35" si="5">(D34-C34)/C34</f>
+      <c r="D35" s="22">
+        <f t="shared" ref="D35:I35" si="17">(D34-C34)/C34</f>
         <v>0</v>
       </c>
-      <c r="E35" s="23">
-        <f t="shared" si="5"/>
+      <c r="E35" s="22">
+        <f t="shared" si="17"/>
         <v>-0.106993006993007</v>
       </c>
-      <c r="F35" s="23">
-        <f t="shared" si="5"/>
+      <c r="F35" s="22">
+        <f t="shared" si="17"/>
         <v>0.14643696162881753</v>
       </c>
-      <c r="G35" s="23">
-        <f t="shared" si="5"/>
+      <c r="G35" s="22">
+        <f t="shared" si="17"/>
         <v>-1.366120218579235E-3</v>
       </c>
-      <c r="H35" s="23">
-        <f t="shared" si="5"/>
+      <c r="H35" s="22">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="I35" s="23">
-        <f t="shared" si="5"/>
+      <c r="I35" s="22">
+        <f t="shared" si="17"/>
         <v>0.37893296853625169</v>
       </c>
     </row>
@@ -5463,35 +5589,35 @@
         <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:I80" si="6">B79/B3</f>
+        <f t="shared" ref="B80:I80" si="18">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>7.9515335100340777E-3</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>9.7869890616004603E-3</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>9.9435028248587576E-3</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.1071060762100926E-2</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.3879250520471894E-2</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>1.2607040913415794E-2</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="18"/>
         <v>8.362026561731432E-3</v>
       </c>
       <c r="J80" s="15"/>
@@ -5582,10 +5708,10 @@
       <c r="I83" s="1">
         <v>-22900000</v>
       </c>
-      <c r="P83" s="60" t="s">
+      <c r="P83" s="68" t="s">
         <v>125</v>
       </c>
-      <c r="Q83" s="61"/>
+      <c r="Q83" s="69"/>
     </row>
     <row r="84" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5615,10 +5741,10 @@
       <c r="I84" s="1">
         <v>18900000</v>
       </c>
-      <c r="P84" s="62" t="s">
+      <c r="P84" s="70" t="s">
         <v>126</v>
       </c>
-      <c r="Q84" s="63"/>
+      <c r="Q84" s="71"/>
     </row>
     <row r="85" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5648,10 +5774,10 @@
       <c r="I85" s="1">
         <v>4400000</v>
       </c>
-      <c r="P85" s="50" t="s">
+      <c r="P85" s="47" t="s">
         <v>127</v>
       </c>
-      <c r="Q85" s="51">
+      <c r="Q85" s="48">
         <f>I17</f>
         <v>328400000</v>
       </c>
@@ -5684,10 +5810,10 @@
       <c r="I86" s="1">
         <v>5400000</v>
       </c>
-      <c r="P86" s="50" t="s">
+      <c r="P86" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="Q86" s="51">
+      <c r="Q86" s="48">
         <f>I56</f>
         <v>0</v>
       </c>
@@ -5720,10 +5846,10 @@
       <c r="I87" s="10">
         <v>454700000</v>
       </c>
-      <c r="P87" s="50" t="s">
+      <c r="P87" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="Q87" s="51">
+      <c r="Q87" s="48">
         <f>I61</f>
         <v>241900000</v>
       </c>
@@ -5756,10 +5882,10 @@
       <c r="I88" s="1">
         <v>-336900000</v>
       </c>
-      <c r="P88" s="52" t="s">
+      <c r="P88" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="Q88" s="53">
+      <c r="Q88" s="50">
         <f>Q85/(Q86+Q87)</f>
         <v>1.3575857792476229</v>
       </c>
@@ -5769,35 +5895,35 @@
         <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:I89" si="7">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:I89" si="19">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="D89" s="15" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="E89" s="15" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="F89" s="15" t="e">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>#VALUE!</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.43025676613462871</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.31374881065651761</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="19"/>
         <v>0.41428922774225285</v>
       </c>
       <c r="J89" s="15"/>
@@ -5806,10 +5932,10 @@
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
-      <c r="P89" s="50" t="s">
+      <c r="P89" s="47" t="s">
         <v>106</v>
       </c>
-      <c r="Q89" s="51">
+      <c r="Q89" s="48">
         <f>I27</f>
         <v>61900000</v>
       </c>
@@ -5842,10 +5968,10 @@
       <c r="I90" s="1">
         <v>-47100000</v>
       </c>
-      <c r="P90" s="50" t="s">
+      <c r="P90" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="Q90" s="51">
+      <c r="Q90" s="48">
         <f>I25</f>
         <v>335400000</v>
       </c>
@@ -5878,10 +6004,10 @@
       <c r="I91" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P91" s="52" t="s">
+      <c r="P91" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="Q91" s="53">
+      <c r="Q91" s="50">
         <f>Q89/Q90</f>
         <v>0.18455575432319618</v>
       </c>
@@ -5914,10 +6040,10 @@
       <c r="I92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P92" s="54" t="s">
+      <c r="P92" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="Q92" s="55">
+      <c r="Q92" s="52">
         <f>Q88*(1-Q91)</f>
         <v>1.1070355117001338</v>
       </c>
@@ -5950,10 +6076,10 @@
       <c r="I93" s="1">
         <v>-364700000</v>
       </c>
-      <c r="P93" s="62" t="s">
+      <c r="P93" s="70" t="s">
         <v>133</v>
       </c>
-      <c r="Q93" s="63"/>
+      <c r="Q93" s="71"/>
     </row>
     <row r="94" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -5983,10 +6109,10 @@
       <c r="I94" s="10">
         <v>-364700000</v>
       </c>
-      <c r="P94" s="50" t="s">
+      <c r="P94" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="Q94" s="56">
+      <c r="Q94" s="53">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -6018,12 +6144,12 @@
       <c r="I95" s="1">
         <v>-13000000</v>
       </c>
-      <c r="P95" s="65" t="s">
+      <c r="P95" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="Q95" s="66" cm="1">
+      <c r="Q95" s="57" cm="1">
         <f t="array" ref="Q95">_FV(A1,"Beta")</f>
-        <v>1.8115000000000001</v>
+        <v>1.7907</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6054,10 +6180,10 @@
       <c r="I96" s="1">
         <v>3200000</v>
       </c>
-      <c r="P96" s="50" t="s">
+      <c r="P96" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="Q96" s="56">
+      <c r="Q96" s="53">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -6089,12 +6215,12 @@
       <c r="I97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P97" s="54" t="s">
+      <c r="P97" s="51" t="s">
         <v>137</v>
       </c>
-      <c r="Q97" s="55">
+      <c r="Q97" s="52">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>0.11893507500000002</v>
+        <v>0.118039635</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6125,10 +6251,10 @@
       <c r="I98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P98" s="62" t="s">
+      <c r="P98" s="70" t="s">
         <v>138</v>
       </c>
-      <c r="Q98" s="63"/>
+      <c r="Q98" s="71"/>
     </row>
     <row r="99" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -6158,10 +6284,10 @@
       <c r="I99" s="1">
         <v>-12500000</v>
       </c>
-      <c r="P99" s="50" t="s">
+      <c r="P99" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="Q99" s="51">
+      <c r="Q99" s="48">
         <f>Q86+Q87</f>
         <v>241900000</v>
       </c>
@@ -6194,12 +6320,12 @@
       <c r="I100" s="10">
         <v>-12500000</v>
       </c>
-      <c r="P100" s="52" t="s">
+      <c r="P100" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="Q100" s="53">
+      <c r="Q100" s="50">
         <f>Q99/Q103</f>
-        <v>6.1185160865880051E-2</v>
+        <v>5.3943382589746597E-2</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6230,12 +6356,12 @@
       <c r="I101" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P101" s="65" t="s">
+      <c r="P101" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="Q101" s="43" cm="1">
+      <c r="Q101" s="40" cm="1">
         <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>3711673000</v>
+        <v>4242431319</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6266,12 +6392,12 @@
       <c r="I102" s="10">
         <v>76000000</v>
       </c>
-      <c r="P102" s="52" t="s">
+      <c r="P102" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="Q102" s="53">
+      <c r="Q102" s="50">
         <f>Q101/Q103</f>
-        <v>0.93881483913411989</v>
+        <v>0.94605661741025338</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6302,12 +6428,12 @@
       <c r="I103" s="1">
         <v>113000000</v>
       </c>
-      <c r="P103" s="54" t="s">
+      <c r="P103" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="Q103" s="57">
+      <c r="Q103" s="54">
         <f>Q99+Q101</f>
-        <v>3953573000</v>
+        <v>4484331319</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6338,10 +6464,10 @@
       <c r="I104" s="11">
         <v>189000000</v>
       </c>
-      <c r="P104" s="62" t="s">
+      <c r="P104" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="Q104" s="63"/>
+      <c r="Q104" s="71"/>
     </row>
     <row r="105" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -6369,25 +6495,35 @@
         <v>-1.0499207606973058</v>
       </c>
       <c r="H105" s="15">
-        <f t="shared" ref="H105:I105" si="8">(H106/G106)-1</f>
+        <f t="shared" ref="H105:I105" si="20">(H106/G106)-1</f>
         <v>3.1904761904761907</v>
       </c>
       <c r="I105" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="20"/>
         <v>16.223484848484848</v>
       </c>
-      <c r="J105" s="15"/>
-      <c r="K105" s="15"/>
-      <c r="L105" s="15"/>
-      <c r="M105" s="15"/>
-      <c r="N105" s="15"/>
+      <c r="J105" s="72">
+        <v>37973000</v>
+      </c>
+      <c r="K105" s="72">
+        <v>70740000</v>
+      </c>
+      <c r="L105" s="72">
+        <v>283400000</v>
+      </c>
+      <c r="M105" s="72">
+        <v>474500000</v>
+      </c>
+      <c r="N105" s="72">
+        <v>1167000000</v>
+      </c>
       <c r="O105" s="15"/>
-      <c r="P105" s="24" t="s">
+      <c r="P105" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="Q105" s="25">
+      <c r="Q105" s="24">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>0.17939215917114401</v>
+        <v>0.17138941795651716</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6418,35 +6554,35 @@
       <c r="I106" s="1">
         <v>454700000</v>
       </c>
-      <c r="J106" s="32">
+      <c r="J106" s="29">
         <f>I106*(1+$Q$106)</f>
-        <v>529002128.09286058</v>
-      </c>
-      <c r="K106" s="32">
-        <f t="shared" ref="K106:N106" si="9">J106*(1+$Q$106)</f>
-        <v>615445901.7523098</v>
-      </c>
-      <c r="L106" s="32">
-        <f t="shared" si="9"/>
-        <v>716015376.62854958</v>
-      </c>
-      <c r="M106" s="32">
-        <f t="shared" si="9"/>
-        <v>833018821.16497433</v>
-      </c>
-      <c r="N106" s="32">
-        <f t="shared" si="9"/>
-        <v>969141695.92627561</v>
-      </c>
-      <c r="O106" s="33" t="s">
+        <v>560280715.2749716</v>
+      </c>
+      <c r="K106" s="29">
+        <f t="shared" ref="K106:N106" si="21">J106*(1+$Q$106)</f>
+        <v>690377127.57649827</v>
+      </c>
+      <c r="L106" s="29">
+        <f t="shared" si="21"/>
+        <v>850681748.07134545</v>
+      </c>
+      <c r="M106" s="29">
+        <f t="shared" si="21"/>
+        <v>1048208881.1981012</v>
+      </c>
+      <c r="N106" s="29">
+        <f t="shared" si="21"/>
+        <v>1291601543.2488451</v>
+      </c>
+      <c r="O106" s="30" t="s">
         <v>145</v>
       </c>
-      <c r="P106" s="34" t="s">
+      <c r="P106" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="Q106" s="35">
+      <c r="Q106" s="32">
         <f>(SUM(J4:N4)/5)</f>
-        <v>0.16340912270257454</v>
+        <v>0.23219862607207306</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6459,139 +6595,139 @@
       <c r="G107" s="13"/>
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
-      <c r="J107" s="33"/>
-      <c r="K107" s="33"/>
-      <c r="L107" s="33"/>
-      <c r="M107" s="33"/>
-      <c r="N107" s="36">
-        <f>N106*(1+Q107)/(Q108-Q107)</f>
-        <v>6434071805.5719366</v>
-      </c>
-      <c r="O107" s="37" t="s">
+      <c r="J107" s="30"/>
+      <c r="K107" s="30"/>
+      <c r="L107" s="30"/>
+      <c r="M107" s="30"/>
+      <c r="N107" s="73">
+        <f>N105*(1+Q107)/(Q108-Q107)</f>
+        <v>8171184889.5751896</v>
+      </c>
+      <c r="O107" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="P107" s="38" t="s">
+      <c r="P107" s="35" t="s">
         <v>148</v>
       </c>
-      <c r="Q107" s="39">
+      <c r="Q107" s="36">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="J108" s="36">
-        <f t="shared" ref="J108:L108" si="10">J107+J106</f>
-        <v>529002128.09286058</v>
-      </c>
-      <c r="K108" s="36">
-        <f t="shared" si="10"/>
-        <v>615445901.7523098</v>
-      </c>
-      <c r="L108" s="36">
-        <f t="shared" si="10"/>
-        <v>716015376.62854958</v>
-      </c>
-      <c r="M108" s="36">
+      <c r="J108" s="33">
+        <f t="shared" ref="J108:L108" si="22">J107+J106</f>
+        <v>560280715.2749716</v>
+      </c>
+      <c r="K108" s="33">
+        <f t="shared" si="22"/>
+        <v>690377127.57649827</v>
+      </c>
+      <c r="L108" s="33">
+        <f t="shared" si="22"/>
+        <v>850681748.07134545</v>
+      </c>
+      <c r="M108" s="33">
         <f>M107+M106</f>
-        <v>833018821.16497433</v>
-      </c>
-      <c r="N108" s="36">
-        <f>N107+N106</f>
-        <v>7403213501.4982119</v>
-      </c>
-      <c r="O108" s="37" t="s">
+        <v>1048208881.1981012</v>
+      </c>
+      <c r="N108" s="73">
+        <f>N107+N105</f>
+        <v>9338184889.5751896</v>
+      </c>
+      <c r="O108" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="P108" s="40" t="s">
+      <c r="P108" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="Q108" s="41">
+      <c r="Q108" s="38">
         <f>Q105</f>
-        <v>0.17939215917114401</v>
+        <v>0.17138941795651716</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="J109" s="58" t="s">
+      <c r="J109" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="K109" s="59"/>
+      <c r="K109" s="67"/>
     </row>
     <row r="110" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="J110" s="42" t="s">
+      <c r="J110" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="K110" s="43">
+      <c r="K110" s="40">
         <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>5002369233.6487207</v>
+        <v>6301468942.0866518</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="J111" s="42" t="s">
+      <c r="J111" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="K111" s="43">
+      <c r="K111" s="40">
         <f>I40</f>
         <v>189000000</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="J112" s="42" t="s">
+      <c r="J112" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="K112" s="43">
+      <c r="K112" s="40">
         <f>Q99</f>
         <v>241900000</v>
       </c>
     </row>
     <row r="113" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J113" s="42" t="s">
+      <c r="J113" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="K113" s="43">
+      <c r="K113" s="40">
         <f>K110+K111-K112</f>
-        <v>4949469233.6487207</v>
+        <v>6248568942.0866518</v>
       </c>
     </row>
     <row r="114" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J114" s="42" t="s">
+      <c r="J114" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="K114" s="44">
+      <c r="K114" s="41">
         <f>I34*(1+(5*O16))</f>
         <v>285669377.87542218</v>
       </c>
     </row>
     <row r="115" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J115" s="45" t="s">
+      <c r="J115" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="K115" s="46">
+      <c r="K115" s="43">
         <f>K113/K114</f>
-        <v>17.325865552894996</v>
+        <v>21.873429306838748</v>
       </c>
     </row>
     <row r="116" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J116" s="42" t="s">
+      <c r="J116" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="K116" s="64" cm="1">
+      <c r="K116" s="55" cm="1">
         <f t="array" ref="K116">_FV(A1,"Previous close",TRUE)</f>
-        <v>21.85</v>
+        <v>24.47</v>
       </c>
     </row>
     <row r="117" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J117" s="47" t="s">
+      <c r="J117" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="K117" s="48">
+      <c r="K117" s="45">
         <f>K115/K116-1</f>
-        <v>-0.20705420810549224</v>
+        <v>-0.10611241083617695</v>
       </c>
     </row>
     <row r="118" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J118" s="47" t="s">
+      <c r="J118" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="K118" s="49" t="str">
+      <c r="K118" s="46" t="str">
         <f>IF(K115&gt;K116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Hardware/Livent.xlsx
+++ b/Technology/Hardware/Livent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA062B5B-6612-4B46-8C1E-9CF47E4C73CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3488CD-21F5-DA40-A2AF-948F03078667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1043,6 +1043,8 @@
     <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1061,8 +1063,6 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2296,9 +2296,11 @@
     <v>Powered by Refinitiv</v>
     <v>36.380000000000003</v>
     <v>18.260000000000002</v>
-    <v>1.7907</v>
-    <v>-0.86</v>
-    <v>-3.5145000000000003E-2</v>
+    <v>1.8089</v>
+    <v>0.28999999999999998</v>
+    <v>1.2282999999999999E-2</v>
+    <v>-0.1</v>
+    <v>-4.1840000000000002E-3</v>
     <v>USD</v>
     <v>Livent Corporation is a fully integrated lithium company. The Company manufactures lithium for use in a range of lithium products, which are used primarily in lithium-based batteries, specialty polymers and chemical synthesis applications. It is focused on supplying high performance lithium compounds to the electric vehicles (EV) and broader battery markets. The Company also supplies butyllithium, which is used in the production of polymers and pharmaceutical products, as well as a range of specialty lithium compounds including high purity lithium metal, which is used in non-rechargeable batteries and in the production of lightweight materials for aerospace applications. Its product category includes Lithium Hydroxide, Butyllithium, High Purity Lithium Metal, Lithium Carbonate, and Lithium Chloride. It serves a variety of industrial, pharmaceutical, aerospace, electronics, agricultural and polymer applications.</v>
     <v>1350</v>
@@ -2306,24 +2308,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1818 MARKET STREET, PHILADELPHIA, PA, 19103 US</v>
-    <v>24.39</v>
+    <v>24.096399999999999</v>
     <v>Chemicals</v>
     <v>Stock</v>
-    <v>45071.995120520311</v>
+    <v>45072.998940219528</v>
     <v>0</v>
-    <v>23.07</v>
-    <v>4242431319</v>
+    <v>23.5</v>
+    <v>4294541000</v>
     <v>LIVENT CORPORATION</v>
     <v>LIVENT CORPORATION</v>
-    <v>24.39</v>
+    <v>23.71</v>
     <v>14.567299999999999</v>
-    <v>24.47</v>
     <v>23.61</v>
+    <v>23.9</v>
+    <v>23.8</v>
     <v>179687900</v>
     <v>LTHM</v>
     <v>LIVENT CORPORATION (XNYS:LTHM)</v>
-    <v>120</v>
-    <v>4469741</v>
+    <v>1726031</v>
+    <v>4495075</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -2355,6 +2358,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2375,6 +2380,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2391,7 +2397,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2402,13 +2408,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2474,13 +2483,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2525,6 +2540,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2532,6 +2550,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2893,10 +2914,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E95" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F117" sqref="F117"/>
+      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3600,15 +3621,15 @@
       </c>
       <c r="P16" s="58">
         <f>Q101/I3</f>
-        <v>5.2169593199704867</v>
+        <v>5.2810391047712741</v>
       </c>
       <c r="Q16" s="58">
         <f>Q101/I28</f>
-        <v>15.511631879341865</v>
+        <v>15.702160877513711</v>
       </c>
       <c r="R16" s="59">
         <f>Q101/I106</f>
-        <v>9.3301766417418079</v>
+        <v>9.4447789751484503</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -3727,11 +3748,11 @@
       </c>
       <c r="P19" s="58">
         <f>Q101/J3</f>
-        <v>3.9245433108233119</v>
+        <v>3.9727483811285849</v>
       </c>
       <c r="Q19" s="65">
         <f>Q101/J28</f>
-        <v>9.9354363442622944</v>
+        <v>10.057473067915691</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5708,10 +5729,10 @@
       <c r="I83" s="1">
         <v>-22900000</v>
       </c>
-      <c r="P83" s="68" t="s">
+      <c r="P83" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="Q83" s="69"/>
+      <c r="Q83" s="71"/>
     </row>
     <row r="84" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5741,10 +5762,10 @@
       <c r="I84" s="1">
         <v>18900000</v>
       </c>
-      <c r="P84" s="70" t="s">
+      <c r="P84" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="Q84" s="71"/>
+      <c r="Q84" s="73"/>
     </row>
     <row r="85" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -6076,10 +6097,10 @@
       <c r="I93" s="1">
         <v>-364700000</v>
       </c>
-      <c r="P93" s="70" t="s">
+      <c r="P93" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="Q93" s="71"/>
+      <c r="Q93" s="73"/>
     </row>
     <row r="94" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -6149,7 +6170,7 @@
       </c>
       <c r="Q95" s="57" cm="1">
         <f t="array" ref="Q95">_FV(A1,"Beta")</f>
-        <v>1.7907</v>
+        <v>1.8089</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6220,7 +6241,7 @@
       </c>
       <c r="Q97" s="52">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>0.118039635</v>
+        <v>0.11882314500000001</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6251,10 +6272,10 @@
       <c r="I98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="P98" s="70" t="s">
+      <c r="P98" s="72" t="s">
         <v>138</v>
       </c>
-      <c r="Q98" s="71"/>
+      <c r="Q98" s="73"/>
     </row>
     <row r="99" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -6325,7 +6346,7 @@
       </c>
       <c r="Q100" s="50">
         <f>Q99/Q103</f>
-        <v>5.3943382589746597E-2</v>
+        <v>5.3323739909766271E-2</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6361,7 +6382,7 @@
       </c>
       <c r="Q101" s="40" cm="1">
         <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>4242431319</v>
+        <v>4294541000</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6397,7 +6418,7 @@
       </c>
       <c r="Q102" s="50">
         <f>Q101/Q103</f>
-        <v>0.94605661741025338</v>
+        <v>0.94667626009023376</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6433,7 +6454,7 @@
       </c>
       <c r="Q103" s="54">
         <f>Q99+Q101</f>
-        <v>4484331319</v>
+        <v>4536441000</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6464,10 +6485,10 @@
       <c r="I104" s="11">
         <v>189000000</v>
       </c>
-      <c r="P104" s="70" t="s">
+      <c r="P104" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="Q104" s="71"/>
+      <c r="Q104" s="73"/>
     </row>
     <row r="105" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -6502,19 +6523,19 @@
         <f t="shared" si="20"/>
         <v>16.223484848484848</v>
       </c>
-      <c r="J105" s="72">
+      <c r="J105" s="66">
         <v>37973000</v>
       </c>
-      <c r="K105" s="72">
+      <c r="K105" s="66">
         <v>70740000</v>
       </c>
-      <c r="L105" s="72">
+      <c r="L105" s="66">
         <v>283400000</v>
       </c>
-      <c r="M105" s="72">
+      <c r="M105" s="66">
         <v>474500000</v>
       </c>
-      <c r="N105" s="72">
+      <c r="N105" s="66">
         <v>1167000000</v>
       </c>
       <c r="O105" s="15"/>
@@ -6523,7 +6544,7 @@
       </c>
       <c r="Q105" s="24">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>0.17138941795651716</v>
+        <v>0.17151832421753252</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6599,9 +6620,9 @@
       <c r="K107" s="30"/>
       <c r="L107" s="30"/>
       <c r="M107" s="30"/>
-      <c r="N107" s="73">
+      <c r="N107" s="67">
         <f>N105*(1+Q107)/(Q108-Q107)</f>
-        <v>8171184889.5751896</v>
+        <v>8163995912.3752012</v>
       </c>
       <c r="O107" s="34" t="s">
         <v>147</v>
@@ -6630,9 +6651,9 @@
         <f>M107+M106</f>
         <v>1048208881.1981012</v>
       </c>
-      <c r="N108" s="73">
+      <c r="N108" s="67">
         <f>N107+N105</f>
-        <v>9338184889.5751896</v>
+        <v>9330995912.3752022</v>
       </c>
       <c r="O108" s="34" t="s">
         <v>143</v>
@@ -6642,14 +6663,14 @@
       </c>
       <c r="Q108" s="38">
         <f>Q105</f>
-        <v>0.17138941795651716</v>
+        <v>0.17151832421753252</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="J109" s="66" t="s">
+      <c r="J109" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="K109" s="67"/>
+      <c r="K109" s="69"/>
     </row>
     <row r="110" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="J110" s="39" t="s">
@@ -6657,7 +6678,7 @@
       </c>
       <c r="K110" s="40">
         <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>6301468942.0866518</v>
+        <v>6295299210.2181759</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6684,7 +6705,7 @@
       </c>
       <c r="K113" s="40">
         <f>K110+K111-K112</f>
-        <v>6248568942.0866518</v>
+        <v>6242399210.2181759</v>
       </c>
     </row>
     <row r="114" spans="10:11" ht="20" x14ac:dyDescent="0.25">
@@ -6702,7 +6723,7 @@
       </c>
       <c r="K115" s="43">
         <f>K113/K114</f>
-        <v>21.873429306838748</v>
+        <v>21.851831850666294</v>
       </c>
     </row>
     <row r="116" spans="10:11" ht="20" x14ac:dyDescent="0.25">
@@ -6711,7 +6732,7 @@
       </c>
       <c r="K116" s="55" cm="1">
         <f t="array" ref="K116">_FV(A1,"Previous close",TRUE)</f>
-        <v>24.47</v>
+        <v>23.61</v>
       </c>
     </row>
     <row r="117" spans="10:11" ht="20" x14ac:dyDescent="0.25">
@@ -6720,7 +6741,7 @@
       </c>
       <c r="K117" s="45">
         <f>K115/K116-1</f>
-        <v>-0.10611241083617695</v>
+        <v>-7.4467096541029454E-2</v>
       </c>
     </row>
     <row r="118" spans="10:11" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Livent.xlsx
+++ b/Technology/Hardware/Livent.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3488CD-21F5-DA40-A2AF-948F03078667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6481B2FD-AADA-B84F-9F7C-D040E3D4C443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -70,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="164">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -342,9 +345,6 @@
     <t>Cash at the End of Period</t>
   </si>
   <si>
-    <t>Free Cash Flow</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -393,9 +393,6 @@
     <t>Income Tax Expense</t>
   </si>
   <si>
-    <t>FCF Growth YoY</t>
-  </si>
-  <si>
     <t>WACC</t>
   </si>
   <si>
@@ -507,9 +504,6 @@
     <t>WACC Calculation</t>
   </si>
   <si>
-    <t>Proj. Free Cash Flow</t>
-  </si>
-  <si>
     <t>FCF Growth Rate</t>
   </si>
   <si>
@@ -534,9 +528,6 @@
     <t>Equity Value</t>
   </si>
   <si>
-    <t>Shares</t>
-  </si>
-  <si>
     <t>Intrinsic Value</t>
   </si>
   <si>
@@ -556,6 +547,24 @@
   </si>
   <si>
     <t>Forward P/E</t>
+  </si>
+  <si>
+    <t>Shares (5% dilution)</t>
+  </si>
+  <si>
+    <t>Levered FCF</t>
+  </si>
+  <si>
+    <t>Levered FCF Growth YoY</t>
+  </si>
+  <si>
+    <t>Unlevered FCF</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Proj</t>
+  </si>
+  <si>
+    <t>Unlevered FCF Forecast</t>
   </si>
 </sst>
 </file>
@@ -914,7 +923,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -976,7 +985,6 @@
     <xf numFmtId="10" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1045,6 +1053,10 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment indent="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1123,7 +1135,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.46000657037075665"/>
-          <c:y val="3.7159920371599202E-2"/>
+          <c:y val="2.3888520238885203E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1346,11 +1358,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Sheet 1'!$A$106:$B$106</c:f>
+              <c:f>'Sheet 1'!$A$107:$B$107</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>Free Cash Flow</c:v>
+                  <c:v>Levered FCF</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>- -</c:v>
@@ -1393,7 +1405,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>'Sheet 1'!$C$106:$I$106</c:f>
+              <c:f>'Sheet 1'!$C$107:$I$107</c:f>
               <c:numCache>
                 <c:formatCode>#,###,,;\(#,###,,\);\ \-\ \-</c:formatCode>
                 <c:ptCount val="7"/>
@@ -2138,15 +2150,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
+      <xdr:colOff>15875</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>41274</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>128</xdr:row>
-      <xdr:rowOff>206374</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1587500</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>31749</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2172,6 +2184,66 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Factor Scoring"/>
+      <sheetName val="Factor Investing"/>
+      <sheetName val="Concentrated"/>
+      <sheetName val="Hardware"/>
+      <sheetName val="Software"/>
+      <sheetName val="Consumer"/>
+      <sheetName val="Financial Services"/>
+      <sheetName val="Healthcare"/>
+      <sheetName val="Industrials"/>
+      <sheetName val="Real Estate"/>
+      <sheetName val="Fashion + Beauty"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Treasuries"/>
+      <sheetName val="All Stars"/>
+      <sheetName val="ROIC Port"/>
+      <sheetName val="To Be Modeled"/>
+      <sheetName val="7 Powers"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="Small Cap Gems"/>
+      <sheetName val="Private Companies"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12">
+        <row r="8">
+          <cell r="C8">
+            <v>3.7229999999999999E-2</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2296,11 +2368,9 @@
     <v>Powered by Refinitiv</v>
     <v>36.380000000000003</v>
     <v>18.260000000000002</v>
-    <v>1.8089</v>
-    <v>0.28999999999999998</v>
-    <v>1.2282999999999999E-2</v>
-    <v>-0.1</v>
-    <v>-4.1840000000000002E-3</v>
+    <v>1.8238000000000001</v>
+    <v>-0.56000000000000005</v>
+    <v>-2.0849000000000003E-2</v>
     <v>USD</v>
     <v>Livent Corporation is a fully integrated lithium company. The Company manufactures lithium for use in a range of lithium products, which are used primarily in lithium-based batteries, specialty polymers and chemical synthesis applications. It is focused on supplying high performance lithium compounds to the electric vehicles (EV) and broader battery markets. The Company also supplies butyllithium, which is used in the production of polymers and pharmaceutical products, as well as a range of specialty lithium compounds including high purity lithium metal, which is used in non-rechargeable batteries and in the production of lightweight materials for aerospace applications. Its product category includes Lithium Hydroxide, Butyllithium, High Purity Lithium Metal, Lithium Carbonate, and Lithium Chloride. It serves a variety of industrial, pharmaceutical, aerospace, electronics, agricultural and polymer applications.</v>
     <v>1350</v>
@@ -2308,25 +2378,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1818 MARKET STREET, PHILADELPHIA, PA, 19103 US</v>
-    <v>24.096399999999999</v>
+    <v>26.8</v>
     <v>Chemicals</v>
     <v>Stock</v>
-    <v>45072.998940219528</v>
+    <v>45099.980547256251</v>
     <v>0</v>
-    <v>23.5</v>
-    <v>4294541000</v>
+    <v>26.19</v>
+    <v>4725791770</v>
     <v>LIVENT CORPORATION</v>
     <v>LIVENT CORPORATION</v>
-    <v>23.71</v>
-    <v>14.567299999999999</v>
-    <v>23.61</v>
-    <v>23.9</v>
-    <v>23.8</v>
+    <v>26.73</v>
+    <v>16.2271</v>
+    <v>26.86</v>
+    <v>26.3</v>
     <v>179687900</v>
     <v>LTHM</v>
     <v>LIVENT CORPORATION (XNYS:LTHM)</v>
-    <v>1726031</v>
-    <v>4495075</v>
+    <v>423</v>
+    <v>2848891</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -2358,8 +2427,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2380,7 +2447,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2397,7 +2463,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2408,16 +2474,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2483,19 +2546,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2540,9 +2597,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2550,9 +2604,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2914,10 +2965,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomRight" activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2976,37 +3027,37 @@
         <v>0</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
@@ -3020,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="1">
         <v>264100000</v>
@@ -3059,21 +3110,21 @@
         <v>2196000000</v>
       </c>
       <c r="O3" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="P3" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q3" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="P3" s="20" t="s">
+      <c r="R3" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15" t="e">
@@ -3137,7 +3188,7 @@
         <v>150.8083644258943</v>
       </c>
       <c r="R4" s="17">
-        <f>(I105+H105+G105)/3</f>
+        <f>(I106+H106+G106)/3</f>
         <v>6.1213467594212441</v>
       </c>
       <c r="Z4" s="16"/>
@@ -3157,7 +3208,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="1">
         <v>175800000</v>
@@ -3186,7 +3237,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="10">
         <v>88300000</v>
@@ -3210,16 +3261,16 @@
         <v>395700000</v>
       </c>
       <c r="O6" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q6" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="R6" s="20" t="s">
         <v>114</v>
-      </c>
-      <c r="Q6" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="R6" s="20" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3227,7 +3278,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2">
         <v>0.33429999999999999</v>
@@ -3263,7 +3314,7 @@
         <v>0.33629999999999999</v>
       </c>
       <c r="R7" s="21">
-        <f>I106/I3</f>
+        <f>I107/I3</f>
         <v>0.55914904082636496</v>
       </c>
     </row>
@@ -3272,7 +3323,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C8" s="1">
         <v>3100000</v>
@@ -3298,7 +3349,7 @@
     </row>
     <row r="9" spans="1:38" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -3335,16 +3386,16 @@
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="O9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="P9" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="P9" s="20" t="s">
+      <c r="Q9" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="Q9" s="20" t="s">
+      <c r="R9" s="20" t="s">
         <v>98</v>
-      </c>
-      <c r="R9" s="20" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3352,7 +3403,7 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="1">
         <v>25200000</v>
@@ -3370,10 +3421,10 @@
         <v>44600000</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O10" s="17">
         <f>I9</f>
@@ -3397,28 +3448,28 @@
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:38" ht="20" x14ac:dyDescent="0.25">
@@ -3426,7 +3477,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1">
         <v>25200000</v>
@@ -3450,21 +3501,21 @@
         <v>55200000</v>
       </c>
       <c r="O12" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q12" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="P12" s="20" t="s">
+      <c r="R12" s="20" t="s">
         <v>118</v>
-      </c>
-      <c r="Q12" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="R12" s="20" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="15" t="e">
         <f>B12/B3</f>
@@ -3512,7 +3563,7 @@
         <f>I22/(I72+I56+I61)</f>
         <v>0.19607140724819391</v>
       </c>
-      <c r="R13" s="60">
+      <c r="R13" s="59">
         <f>I67/I72</f>
         <v>0.27257501744591767</v>
       </c>
@@ -3522,25 +3573,25 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I14" s="1">
         <v>8200000</v>
@@ -3551,7 +3602,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1">
         <v>28300000</v>
@@ -3575,16 +3626,16 @@
         <v>67300000</v>
       </c>
       <c r="O15" s="19" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="P15" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="R15" s="20" t="s">
         <v>121</v>
-      </c>
-      <c r="Q15" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="R15" s="20" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:38" ht="19" x14ac:dyDescent="0.25">
@@ -3592,7 +3643,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="1">
         <v>204100000</v>
@@ -3619,17 +3670,17 @@
         <f>(I35+H35+G35+F35+E35)/5</f>
         <v>8.3402160590696592E-2</v>
       </c>
-      <c r="P16" s="58">
+      <c r="P16" s="57">
         <f>Q101/I3</f>
-        <v>5.2810391047712741</v>
-      </c>
-      <c r="Q16" s="58">
+        <v>5.8113523979340878</v>
+      </c>
+      <c r="Q16" s="57">
         <f>Q101/I28</f>
-        <v>15.702160877513711</v>
-      </c>
-      <c r="R16" s="59">
-        <f>Q101/I106</f>
-        <v>9.4447789751484503</v>
+        <v>17.278946142595977</v>
+      </c>
+      <c r="R16" s="58">
+        <f>Q101/I107</f>
+        <v>10.393208203210909</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -3637,19 +3688,19 @@
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G17" s="1">
         <v>3700000</v>
@@ -3666,7 +3717,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="1">
         <v>14800000</v>
@@ -3687,16 +3738,16 @@
         <v>25100000</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="O18" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="P18" s="20" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="Q18" s="20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -3704,7 +3755,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="10">
         <v>69300000</v>
@@ -3727,37 +3778,37 @@
       <c r="I19" s="10">
         <v>663800000</v>
       </c>
-      <c r="J19" s="61">
+      <c r="J19" s="60">
         <v>570500000</v>
       </c>
-      <c r="K19" s="61">
+      <c r="K19" s="60">
         <v>670000000</v>
       </c>
-      <c r="L19" s="61">
+      <c r="L19" s="60">
         <v>786000000</v>
       </c>
-      <c r="M19" s="61">
+      <c r="M19" s="60">
         <v>914000000</v>
       </c>
-      <c r="N19" s="61">
+      <c r="N19" s="60">
         <v>1924000000</v>
       </c>
       <c r="O19" s="28">
         <f>I40-I56-I61</f>
         <v>-52900000</v>
       </c>
-      <c r="P19" s="58">
+      <c r="P19" s="57">
         <f>Q101/J3</f>
-        <v>3.9727483811285849</v>
-      </c>
-      <c r="Q19" s="65">
+        <v>4.3716852636447729</v>
+      </c>
+      <c r="Q19" s="64">
         <f>Q101/J28</f>
-        <v>10.057473067915691</v>
+        <v>11.067428032786886</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15" t="e">
@@ -3814,7 +3865,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="2">
         <v>0.26240000000000002</v>
@@ -3837,23 +3888,23 @@
       <c r="I21" s="2">
         <v>0.81630000000000003</v>
       </c>
-      <c r="J21" s="62">
+      <c r="J21" s="61">
         <f t="shared" ref="J21:M21" si="9">J19/J3</f>
         <v>0.52775208140610541</v>
       </c>
-      <c r="K21" s="62">
+      <c r="K21" s="61">
         <f t="shared" si="9"/>
         <v>0.48063127690100432</v>
       </c>
-      <c r="L21" s="62">
+      <c r="L21" s="61">
         <f t="shared" si="9"/>
         <v>0.53651877133105808</v>
       </c>
-      <c r="M21" s="62">
+      <c r="M21" s="61">
         <f t="shared" si="9"/>
         <v>0.61383478844862327</v>
       </c>
-      <c r="N21" s="62">
+      <c r="N21" s="61">
         <f>N19/N3</f>
         <v>0.87613843351548271</v>
       </c>
@@ -3863,7 +3914,7 @@
         <v>16</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="10">
         <v>60000000</v>
@@ -3892,7 +3943,7 @@
         <v>17</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2">
         <v>0.22720000000000001</v>
@@ -3921,7 +3972,7 @@
         <v>18</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="1">
         <v>-5500000</v>
@@ -3950,7 +4001,7 @@
         <v>19</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="10">
         <v>54500000</v>
@@ -3979,7 +4030,7 @@
         <v>20</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2">
         <v>0.2064</v>
@@ -4008,7 +4059,7 @@
         <v>21</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="1">
         <v>7400000</v>
@@ -4037,7 +4088,7 @@
         <v>22</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="11">
         <v>47100000</v>
@@ -4060,25 +4111,25 @@
       <c r="I28" s="11">
         <v>273500000</v>
       </c>
-      <c r="J28" s="63">
+      <c r="J28" s="62">
         <v>427000000</v>
       </c>
-      <c r="K28" s="63">
+      <c r="K28" s="62">
         <v>521000000</v>
       </c>
-      <c r="L28" s="63">
+      <c r="L28" s="62">
         <v>644000000</v>
       </c>
-      <c r="M28" s="63">
+      <c r="M28" s="62">
         <v>687000000</v>
       </c>
-      <c r="N28" s="63">
+      <c r="N28" s="62">
         <v>1698000000</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15" t="e">
@@ -4135,7 +4186,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2">
         <v>0.17829999999999999</v>
@@ -4158,23 +4209,23 @@
       <c r="I30" s="2">
         <v>0.33629999999999999</v>
       </c>
-      <c r="J30" s="64">
+      <c r="J30" s="63">
         <f>J28/J3</f>
         <v>0.39500462534690101</v>
       </c>
-      <c r="K30" s="64">
+      <c r="K30" s="63">
         <f t="shared" ref="K30:N30" si="16">K28/K3</f>
         <v>0.37374461979913914</v>
       </c>
-      <c r="L30" s="64">
+      <c r="L30" s="63">
         <f t="shared" si="16"/>
         <v>0.4395904436860068</v>
       </c>
-      <c r="M30" s="64">
+      <c r="M30" s="63">
         <f t="shared" si="16"/>
         <v>0.4613834788448623</v>
       </c>
-      <c r="N30" s="64">
+      <c r="N30" s="63">
         <f t="shared" si="16"/>
         <v>0.77322404371584696</v>
       </c>
@@ -4184,7 +4235,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="12">
         <v>0.33</v>
@@ -4202,7 +4253,7 @@
         <v>-0.13</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I31" s="12">
         <v>1.59</v>
@@ -4213,7 +4264,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C32" s="12">
         <v>0.33</v>
@@ -4231,7 +4282,7 @@
         <v>-0.13</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I32" s="12">
         <v>1.36</v>
@@ -4242,7 +4293,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="1">
         <v>143000000</v>
@@ -4271,7 +4322,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C34" s="1">
         <v>143000000</v>
@@ -4297,7 +4348,7 @@
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22" t="e">
@@ -4334,28 +4385,28 @@
         <v>28</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="21" x14ac:dyDescent="0.25">
@@ -4363,28 +4414,28 @@
         <v>29</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="19" x14ac:dyDescent="0.25">
@@ -4392,7 +4443,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C38" s="1">
         <v>1200000</v>
@@ -4421,28 +4472,28 @@
         <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F39" s="1">
         <v>23000000</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="19" x14ac:dyDescent="0.25">
@@ -4450,7 +4501,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1">
         <v>1200000</v>
@@ -4479,7 +4530,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="1">
         <v>146300000</v>
@@ -4508,7 +4559,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1">
         <v>49600000</v>
@@ -4537,7 +4588,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C43" s="1">
         <v>9000000</v>
@@ -4566,7 +4617,7 @@
         <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C44" s="10">
         <v>206100000</v>
@@ -4595,7 +4646,7 @@
         <v>37</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C45" s="1">
         <v>220700000</v>
@@ -4624,28 +4675,28 @@
         <v>38</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="19" x14ac:dyDescent="0.25">
@@ -4653,28 +4704,28 @@
         <v>39</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C47" s="1">
         <v>2300000</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E47" s="1">
         <v>1100000</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="19" x14ac:dyDescent="0.25">
@@ -4682,28 +4733,28 @@
         <v>40</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C48" s="1">
         <v>2300000</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E48" s="1">
         <v>1100000</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="19" x14ac:dyDescent="0.25">
@@ -4711,13 +4762,13 @@
         <v>41</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E49" s="1">
         <v>2200000</v>
@@ -4740,7 +4791,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C50" s="1">
         <v>2400000</v>
@@ -4769,7 +4820,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1">
         <v>64700000</v>
@@ -4798,7 +4849,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C52" s="1">
         <v>290100000</v>
@@ -4827,28 +4878,28 @@
         <v>45</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="19" x14ac:dyDescent="0.25">
@@ -4856,7 +4907,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C54" s="11">
         <v>496200000</v>
@@ -4885,7 +4936,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C55" s="1">
         <v>59700000</v>
@@ -4903,10 +4954,10 @@
         <v>65400000</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="19" x14ac:dyDescent="0.25">
@@ -4914,13 +4965,13 @@
         <v>48</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1">
         <v>2100000</v>
@@ -4943,7 +4994,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C57" s="1">
         <v>3200000</v>
@@ -4955,7 +5006,7 @@
         <v>900000</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G57" s="1">
         <v>3000000</v>
@@ -4964,7 +5015,7 @@
         <v>7400000</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="19" x14ac:dyDescent="0.25">
@@ -4972,28 +5023,28 @@
         <v>50</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C58" s="1">
         <v>1800000</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F58" s="1">
         <v>13000000</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="19" x14ac:dyDescent="0.25">
@@ -5001,7 +5052,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C59" s="1">
         <v>21300000</v>
@@ -5030,7 +5081,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C60" s="10">
         <v>86000000</v>
@@ -5059,10 +5110,10 @@
         <v>53</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D61" s="1">
         <v>34000000</v>
@@ -5088,28 +5139,28 @@
         <v>50</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:9" ht="19" x14ac:dyDescent="0.25">
@@ -5117,7 +5168,7 @@
         <v>54</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C63" s="1">
         <v>8200000</v>
@@ -5129,16 +5180,16 @@
         <v>6700000</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G63" s="1">
         <v>12700000</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="64" spans="1:9" ht="19" x14ac:dyDescent="0.25">
@@ -5146,7 +5197,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" s="1">
         <v>16600000</v>
@@ -5164,10 +5215,10 @@
         <v>22700000</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -5175,7 +5226,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="1">
         <v>24800000</v>
@@ -5204,28 +5255,28 @@
         <v>57</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -5233,7 +5284,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C67" s="10">
         <v>110800000</v>
@@ -5262,7 +5313,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C68" s="1">
         <v>431000000</v>
@@ -5280,10 +5331,10 @@
         <v>100000</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -5291,10 +5342,10 @@
         <v>60</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="1">
         <v>25900000</v>
@@ -5309,7 +5360,7 @@
         <v>57600000</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I69" s="1">
         <v>331100000</v>
@@ -5320,7 +5371,7 @@
         <v>61</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="1">
         <v>-45600000</v>
@@ -5338,10 +5389,10 @@
         <v>-42000000</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -5349,10 +5400,10 @@
         <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D71" s="1">
         <v>511100000</v>
@@ -5367,10 +5418,10 @@
         <v>779700000</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -5378,7 +5429,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="10">
         <v>385400000</v>
@@ -5407,7 +5458,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="11">
         <v>496200000</v>
@@ -5436,28 +5487,28 @@
         <v>28</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="21" x14ac:dyDescent="0.25">
@@ -5465,28 +5516,28 @@
         <v>65</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I75" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="19" x14ac:dyDescent="0.25">
@@ -5494,7 +5545,7 @@
         <v>66</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C76" s="1">
         <v>47100000</v>
@@ -5523,7 +5574,7 @@
         <v>13</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C77" s="1">
         <v>14800000</v>
@@ -5552,7 +5603,7 @@
         <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C78" s="1">
         <v>400000</v>
@@ -5581,7 +5632,7 @@
         <v>68</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C79" s="1">
         <v>2100000</v>
@@ -5607,7 +5658,7 @@
     </row>
     <row r="80" spans="1:10" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
         <f t="shared" ref="B80:I80" si="18">B79/B3</f>
@@ -5648,7 +5699,7 @@
         <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="1">
         <v>-19900000</v>
@@ -5677,7 +5728,7 @@
         <v>70</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C82" s="1">
         <v>-8300000</v>
@@ -5706,7 +5757,7 @@
         <v>34</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C83" s="1">
         <v>-7900000</v>
@@ -5729,17 +5780,17 @@
       <c r="I83" s="1">
         <v>-22900000</v>
       </c>
-      <c r="P83" s="70" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q83" s="71"/>
+      <c r="P83" s="71" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q83" s="72"/>
     </row>
     <row r="84" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>47</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C84" s="1">
         <v>1800000</v>
@@ -5762,17 +5813,17 @@
       <c r="I84" s="1">
         <v>18900000</v>
       </c>
-      <c r="P84" s="72" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q84" s="73"/>
+      <c r="P84" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q84" s="74"/>
     </row>
     <row r="85" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C85" s="1">
         <v>-700000</v>
@@ -5795,10 +5846,10 @@
       <c r="I85" s="1">
         <v>4400000</v>
       </c>
-      <c r="P85" s="47" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q85" s="48">
+      <c r="P85" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q85" s="47">
         <f>I17</f>
         <v>328400000</v>
       </c>
@@ -5808,7 +5859,7 @@
         <v>72</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C86" s="1">
         <v>6500000</v>
@@ -5831,10 +5882,10 @@
       <c r="I86" s="1">
         <v>5400000</v>
       </c>
-      <c r="P86" s="47" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q86" s="48">
+      <c r="P86" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q86" s="47">
         <f>I56</f>
         <v>0</v>
       </c>
@@ -5844,7 +5895,7 @@
         <v>73</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C87" s="10">
         <v>51000000</v>
@@ -5867,10 +5918,10 @@
       <c r="I87" s="10">
         <v>454700000</v>
       </c>
-      <c r="P87" s="47" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q87" s="48">
+      <c r="P87" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q87" s="47">
         <f>I61</f>
         <v>241900000</v>
       </c>
@@ -5880,19 +5931,19 @@
         <v>74</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F88" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="C88" s="1">
+        <v>-31300000</v>
+      </c>
+      <c r="D88" s="1">
+        <v>-62500000</v>
+      </c>
+      <c r="E88" s="1">
+        <v>-78400000</v>
+      </c>
+      <c r="F88" s="1">
+        <v>-188800000</v>
       </c>
       <c r="G88" s="1">
         <v>-124000000</v>
@@ -5903,37 +5954,37 @@
       <c r="I88" s="1">
         <v>-336900000</v>
       </c>
-      <c r="P88" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q88" s="50">
+      <c r="P88" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q88" s="49">
         <f>Q85/(Q86+Q87)</f>
         <v>1.3575857792476229</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B89" s="15" t="e">
         <f t="shared" ref="B89:I89" si="19">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
-      <c r="C89" s="15" t="e">
+      <c r="C89" s="15">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D89" s="15" t="e">
+        <v>0.11851571374479364</v>
+      </c>
+      <c r="D89" s="15">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E89" s="15" t="e">
+        <v>0.17990788716177317</v>
+      </c>
+      <c r="E89" s="15">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F89" s="15" t="e">
+        <v>0.17717514124293784</v>
+      </c>
+      <c r="F89" s="15">
         <f t="shared" si="19"/>
-        <v>#VALUE!</v>
+        <v>0.48609680741503603</v>
       </c>
       <c r="G89" s="15">
         <f t="shared" si="19"/>
@@ -5953,10 +6004,10 @@
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
-      <c r="P89" s="47" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q89" s="48">
+      <c r="P89" s="46" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q89" s="47">
         <f>I27</f>
         <v>61900000</v>
       </c>
@@ -5966,16 +6017,16 @@
         <v>75</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F90" s="1">
         <v>-800000</v>
@@ -5989,10 +6040,10 @@
       <c r="I90" s="1">
         <v>-47100000</v>
       </c>
-      <c r="P90" s="47" t="s">
+      <c r="P90" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="Q90" s="48">
+      <c r="Q90" s="47">
         <f>I25</f>
         <v>335400000</v>
       </c>
@@ -6002,33 +6053,33 @@
         <v>76</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F91" s="1">
         <v>-400000</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H91" s="1">
         <v>-800000</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P91" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q91" s="50">
+        <v>91</v>
+      </c>
+      <c r="P91" s="48" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q91" s="49">
         <f>Q89/Q90</f>
         <v>0.18455575432319618</v>
       </c>
@@ -6038,33 +6089,33 @@
         <v>77</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P92" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q92" s="52">
+        <v>91</v>
+      </c>
+      <c r="P92" s="50" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q92" s="51">
         <f>Q88*(1-Q91)</f>
         <v>1.1070355117001338</v>
       </c>
@@ -6074,7 +6125,7 @@
         <v>78</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C93" s="1">
         <v>-31300000</v>
@@ -6097,17 +6148,17 @@
       <c r="I93" s="1">
         <v>-364700000</v>
       </c>
-      <c r="P93" s="72" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q93" s="73"/>
+      <c r="P93" s="73" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q93" s="74"/>
     </row>
     <row r="94" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>79</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94" s="10">
         <v>-31300000</v>
@@ -6130,11 +6181,12 @@
       <c r="I94" s="10">
         <v>-364700000</v>
       </c>
-      <c r="P94" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q94" s="53">
-        <v>4.095E-2</v>
+      <c r="P94" s="46" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q94" s="68">
+        <f>[1]Treasuries!$C$8</f>
+        <v>3.7229999999999999E-2</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6142,16 +6194,16 @@
         <v>80</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1">
         <v>-10700000</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F95" s="1">
         <v>-111400000</v>
@@ -6165,12 +6217,12 @@
       <c r="I95" s="1">
         <v>-13000000</v>
       </c>
-      <c r="P95" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q95" s="57" cm="1">
+      <c r="P95" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q95" s="56" cm="1">
         <f t="array" ref="Q95">_FV(A1,"Beta")</f>
-        <v>1.8089</v>
+        <v>1.8238000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6178,22 +6230,22 @@
         <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E96" s="1">
         <v>368700000</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H96" s="1">
         <v>1500000</v>
@@ -6201,10 +6253,10 @@
       <c r="I96" s="1">
         <v>3200000</v>
       </c>
-      <c r="P96" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q96" s="53">
+      <c r="P96" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q96" s="52">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -6213,35 +6265,35 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H97" s="1">
         <v>-100000</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P97" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q97" s="52">
+        <v>91</v>
+      </c>
+      <c r="P97" s="50" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q97" s="51">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>0.11882314500000001</v>
+        <v>0.12252912600000002</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6249,40 +6301,40 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E98" s="1">
         <v>-365700000</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P98" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q98" s="73"/>
+        <v>91</v>
+      </c>
+      <c r="P98" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q98" s="74"/>
     </row>
     <row r="99" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C99" s="1">
         <v>-7900000</v>
@@ -6305,10 +6357,10 @@
       <c r="I99" s="1">
         <v>-12500000</v>
       </c>
-      <c r="P99" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q99" s="48">
+      <c r="P99" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q99" s="47">
         <f>Q86+Q87</f>
         <v>241900000</v>
       </c>
@@ -6318,7 +6370,7 @@
         <v>85</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C100" s="10">
         <v>-18600000</v>
@@ -6341,12 +6393,12 @@
       <c r="I100" s="10">
         <v>-12500000</v>
       </c>
-      <c r="P100" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q100" s="50">
+      <c r="P100" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q100" s="49">
         <f>Q99/Q103</f>
-        <v>5.3323739909766271E-2</v>
+        <v>4.8694647574722617E-2</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6354,10 +6406,10 @@
         <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D101" s="1">
         <v>-100000</v>
@@ -6375,14 +6427,14 @@
         <v>300000</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="P101" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q101" s="40" cm="1">
+        <v>91</v>
+      </c>
+      <c r="P101" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q101" s="39" cm="1">
         <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>4294541000</v>
+        <v>4725791770</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6390,7 +6442,7 @@
         <v>87</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" s="10">
         <v>1100000</v>
@@ -6413,12 +6465,12 @@
       <c r="I102" s="10">
         <v>76000000</v>
       </c>
-      <c r="P102" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q102" s="50">
+      <c r="P102" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q102" s="49">
         <f>Q101/Q103</f>
-        <v>0.94667626009023376</v>
+        <v>0.95130535242527736</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6426,7 +6478,7 @@
         <v>88</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C103" s="1">
         <v>2900000</v>
@@ -6449,20 +6501,20 @@
       <c r="I103" s="1">
         <v>113000000</v>
       </c>
-      <c r="P103" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q103" s="54">
+      <c r="P103" s="50" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q103" s="53">
         <f>Q99+Q101</f>
-        <v>4536441000</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+        <v>4967691770</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
         <v>89</v>
       </c>
       <c r="B104" s="11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C104" s="11">
         <v>4000000</v>
@@ -6485,121 +6537,127 @@
       <c r="I104" s="11">
         <v>189000000</v>
       </c>
-      <c r="P104" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q104" s="73"/>
-    </row>
-    <row r="105" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="P104" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q104" s="74"/>
+    </row>
+    <row r="105" spans="1:17" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" s="1"/>
-      <c r="C105" s="15" t="e">
-        <f>(C106/B106)-1</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D105" s="15">
-        <f>(D106/C106)-1</f>
-        <v>-0.62845849802371534</v>
-      </c>
-      <c r="E105" s="15">
-        <f>(E106/D106)-1</f>
-        <v>0.95744680851063824</v>
-      </c>
-      <c r="F105" s="15">
-        <f>(F106/E106)-1</f>
-        <v>-7.8586956521739131</v>
-      </c>
-      <c r="G105" s="15">
-        <f>(G106/F106)-1</f>
-        <v>-1.0499207606973058</v>
-      </c>
-      <c r="H105" s="15">
-        <f t="shared" ref="H105:I105" si="20">(H106/G106)-1</f>
-        <v>3.1904761904761907</v>
-      </c>
-      <c r="I105" s="15">
+        <v>161</v>
+      </c>
+      <c r="C105" s="1">
+        <f t="shared" ref="C105:H105" si="20">(C22*(1-$Q$91))+C77+C88+C81</f>
+        <v>12526654.74060823</v>
+      </c>
+      <c r="D105" s="1">
         <f t="shared" si="20"/>
-        <v>16.223484848484848</v>
-      </c>
-      <c r="J105" s="66">
-        <v>37973000</v>
-      </c>
-      <c r="K105" s="66">
-        <v>70740000</v>
-      </c>
-      <c r="L105" s="66">
-        <v>283400000</v>
-      </c>
-      <c r="M105" s="66">
-        <v>474500000</v>
-      </c>
-      <c r="N105" s="66">
-        <v>1167000000</v>
-      </c>
-      <c r="O105" s="15"/>
+        <v>561955.87358377874</v>
+      </c>
+      <c r="E105" s="1">
+        <f t="shared" si="20"/>
+        <v>17129844.961240321</v>
+      </c>
+      <c r="F105" s="1">
+        <f t="shared" si="20"/>
+        <v>-129421914.13237925</v>
+      </c>
+      <c r="G105" s="1">
+        <f t="shared" si="20"/>
+        <v>-118147107.93082887</v>
+      </c>
+      <c r="H105" s="1">
+        <f t="shared" si="20"/>
+        <v>-103287328.56290996</v>
+      </c>
+      <c r="I105" s="1">
+        <f>(I22*(1-$Q$91))+I77+I88+I81</f>
+        <v>413291890.28026235</v>
+      </c>
+      <c r="J105" s="29">
+        <f>I105*(1+$Q$106)</f>
+        <v>509257699.37006921</v>
+      </c>
+      <c r="K105" s="29">
+        <f t="shared" ref="K105:N105" si="21">J105*(1+$Q$106)</f>
+        <v>627506637.48042405</v>
+      </c>
+      <c r="L105" s="29">
+        <f t="shared" si="21"/>
+        <v>773212816.55448484</v>
+      </c>
+      <c r="M105" s="29">
+        <f t="shared" si="21"/>
+        <v>952751770.21975398</v>
+      </c>
+      <c r="N105" s="29">
+        <f t="shared" si="21"/>
+        <v>1173979422.2525163</v>
+      </c>
+      <c r="O105" s="30" t="s">
+        <v>162</v>
+      </c>
       <c r="P105" s="23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="Q105" s="24">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>0.17151832421753252</v>
+        <v>0.17046931748673197</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A106" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C106" s="1">
-        <v>25300000</v>
-      </c>
-      <c r="D106" s="1">
-        <v>9400000</v>
-      </c>
-      <c r="E106" s="1">
-        <v>18400000</v>
-      </c>
-      <c r="F106" s="1">
-        <v>-126200000</v>
-      </c>
-      <c r="G106" s="1">
-        <v>6300000</v>
-      </c>
-      <c r="H106" s="1">
-        <v>26400000</v>
-      </c>
-      <c r="I106" s="1">
-        <v>454700000</v>
-      </c>
-      <c r="J106" s="29">
-        <f>I106*(1+$Q$106)</f>
-        <v>560280715.2749716</v>
-      </c>
-      <c r="K106" s="29">
-        <f t="shared" ref="K106:N106" si="21">J106*(1+$Q$106)</f>
-        <v>690377127.57649827</v>
-      </c>
-      <c r="L106" s="29">
-        <f t="shared" si="21"/>
-        <v>850681748.07134545</v>
-      </c>
-      <c r="M106" s="29">
-        <f t="shared" si="21"/>
-        <v>1048208881.1981012</v>
-      </c>
-      <c r="N106" s="29">
-        <f t="shared" si="21"/>
-        <v>1291601543.2488451</v>
+      <c r="A106" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B106" s="1"/>
+      <c r="C106" s="15" t="e">
+        <f t="shared" ref="C106:I106" si="22">(C107/B107)-1</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D106" s="15">
+        <f t="shared" si="22"/>
+        <v>-0.62845849802371534</v>
+      </c>
+      <c r="E106" s="15">
+        <f t="shared" si="22"/>
+        <v>0.95744680851063824</v>
+      </c>
+      <c r="F106" s="15">
+        <f t="shared" si="22"/>
+        <v>-7.8586956521739131</v>
+      </c>
+      <c r="G106" s="15">
+        <f t="shared" si="22"/>
+        <v>-1.0499207606973058</v>
+      </c>
+      <c r="H106" s="15">
+        <f t="shared" si="22"/>
+        <v>3.1904761904761907</v>
+      </c>
+      <c r="I106" s="15">
+        <f t="shared" si="22"/>
+        <v>16.223484848484848</v>
+      </c>
+      <c r="J106" s="65">
+        <v>39120000</v>
+      </c>
+      <c r="K106" s="65">
+        <v>67915000</v>
+      </c>
+      <c r="L106" s="65">
+        <v>266700000</v>
+      </c>
+      <c r="M106" s="65">
+        <v>480900000</v>
+      </c>
+      <c r="N106" s="65">
+        <v>1167000000</v>
       </c>
       <c r="O106" s="30" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="P106" s="31" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q106" s="32">
         <f>(SUM(J4:N4)/5)</f>
@@ -6607,148 +6665,166 @@
       </c>
     </row>
     <row r="107" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="5"/>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13"/>
-      <c r="E107" s="13"/>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
+      <c r="A107" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C107" s="1">
+        <v>25300000</v>
+      </c>
+      <c r="D107" s="1">
+        <v>9400000</v>
+      </c>
+      <c r="E107" s="1">
+        <v>18400000</v>
+      </c>
+      <c r="F107" s="1">
+        <v>-126200000</v>
+      </c>
+      <c r="G107" s="1">
+        <v>6300000</v>
+      </c>
+      <c r="H107" s="1">
+        <v>26400000</v>
+      </c>
+      <c r="I107" s="1">
+        <v>454700000</v>
+      </c>
       <c r="J107" s="30"/>
       <c r="K107" s="30"/>
       <c r="L107" s="30"/>
       <c r="M107" s="30"/>
-      <c r="N107" s="67">
-        <f>N105*(1+Q107)/(Q108-Q107)</f>
-        <v>8163995912.3752012</v>
-      </c>
-      <c r="O107" s="34" t="s">
+      <c r="N107" s="66">
+        <f>N106*(1+Q107)/(Q108-Q107)</f>
+        <v>8222868029.2605429</v>
+      </c>
+      <c r="O107" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="P107" s="34" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q107" s="35">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="J108" s="66">
+        <f t="shared" ref="J108:M108" si="23">J107+J106</f>
+        <v>39120000</v>
+      </c>
+      <c r="K108" s="66">
+        <f t="shared" si="23"/>
+        <v>67915000</v>
+      </c>
+      <c r="L108" s="66">
+        <f t="shared" si="23"/>
+        <v>266700000</v>
+      </c>
+      <c r="M108" s="66">
+        <f t="shared" si="23"/>
+        <v>480900000</v>
+      </c>
+      <c r="N108" s="66">
+        <f>N107+N106</f>
+        <v>9389868029.2605438</v>
+      </c>
+      <c r="O108" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="P108" s="36" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q108" s="37">
+        <f>Q105</f>
+        <v>0.17046931748673197</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="J109" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="P107" s="35" t="s">
+      <c r="K109" s="70"/>
+    </row>
+    <row r="110" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="J110" s="38" t="s">
         <v>148</v>
       </c>
-      <c r="Q107" s="36">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="J108" s="33">
-        <f t="shared" ref="J108:L108" si="22">J107+J106</f>
-        <v>560280715.2749716</v>
-      </c>
-      <c r="K108" s="33">
-        <f t="shared" si="22"/>
-        <v>690377127.57649827</v>
-      </c>
-      <c r="L108" s="33">
-        <f t="shared" si="22"/>
-        <v>850681748.07134545</v>
-      </c>
-      <c r="M108" s="33">
-        <f>M107+M106</f>
-        <v>1048208881.1981012</v>
-      </c>
-      <c r="N108" s="67">
-        <f>N107+N105</f>
-        <v>9330995912.3752022</v>
-      </c>
-      <c r="O108" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="P108" s="37" t="s">
+      <c r="K110" s="39">
+        <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
+        <v>4779779989.2983484</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+      <c r="J111" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="Q108" s="38">
-        <f>Q105</f>
-        <v>0.17151832421753252</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="J109" s="68" t="s">
-        <v>150</v>
-      </c>
-      <c r="K109" s="69"/>
-    </row>
-    <row r="110" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="J110" s="39" t="s">
-        <v>151</v>
-      </c>
-      <c r="K110" s="40">
-        <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>6295299210.2181759</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="J111" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="K111" s="40">
+      <c r="K111" s="39">
         <f>I40</f>
         <v>189000000</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="J112" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="K112" s="40">
+      <c r="J112" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="K112" s="39">
         <f>Q99</f>
         <v>241900000</v>
       </c>
     </row>
     <row r="113" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J113" s="39" t="s">
+      <c r="J113" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="K113" s="39">
+        <f>K110+K111-K112</f>
+        <v>4726879989.2983484</v>
+      </c>
+    </row>
+    <row r="114" spans="10:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="J114" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="K114" s="40">
+        <f>I34*(1+(5*0.05))</f>
+        <v>252000000</v>
+      </c>
+    </row>
+    <row r="115" spans="10:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="J115" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="K115" s="42">
+        <f>K113/K114</f>
+        <v>18.757460274993445</v>
+      </c>
+    </row>
+    <row r="116" spans="10:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="J116" s="38" t="s">
+        <v>152</v>
+      </c>
+      <c r="K116" s="54" cm="1">
+        <f t="array" ref="K116">_FV(A1,"Previous close",TRUE)</f>
+        <v>26.86</v>
+      </c>
+    </row>
+    <row r="117" spans="10:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="J117" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="K113" s="40">
-        <f>K110+K111-K112</f>
-        <v>6242399210.2181759</v>
-      </c>
-    </row>
-    <row r="114" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J114" s="39" t="s">
+      <c r="K117" s="44">
+        <f>K115/K116-1</f>
+        <v>-0.30165821761007272</v>
+      </c>
+    </row>
+    <row r="118" spans="10:11" ht="20" x14ac:dyDescent="0.25">
+      <c r="J118" s="43" t="s">
         <v>154</v>
       </c>
-      <c r="K114" s="41">
-        <f>I34*(1+(5*O16))</f>
-        <v>285669377.87542218</v>
-      </c>
-    </row>
-    <row r="115" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J115" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="K115" s="43">
-        <f>K113/K114</f>
-        <v>21.851831850666294</v>
-      </c>
-    </row>
-    <row r="116" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J116" s="39" t="s">
-        <v>156</v>
-      </c>
-      <c r="K116" s="55" cm="1">
-        <f t="array" ref="K116">_FV(A1,"Previous close",TRUE)</f>
-        <v>23.61</v>
-      </c>
-    </row>
-    <row r="117" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J117" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="K117" s="45">
-        <f>K115/K116-1</f>
-        <v>-7.4467096541029454E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J118" s="44" t="s">
-        <v>158</v>
-      </c>
-      <c r="K118" s="46" t="str">
+      <c r="K118" s="45" t="str">
         <f>IF(K115&gt;K116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
@@ -6781,8 +6857,9 @@
     <hyperlink ref="I36" r:id="rId16" tooltip="https://www.sec.gov/Archives/edgar/data/1742924/000174292423000009/0001742924-23-000009-index.htm" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
     <hyperlink ref="I74" r:id="rId17" tooltip="https://www.sec.gov/Archives/edgar/data/1742924/000174292423000009/0001742924-23-000009-index.htm" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="J1" r:id="rId18" display="https://finbox.com/NYSE:LTHM/explorer/revenue_proj" xr:uid="{D0F11036-7228-854D-BE37-84B65CC55A93}"/>
+    <hyperlink ref="O106" r:id="rId19" xr:uid="{4FE5A229-2CE5-A045-8230-519400F9EB3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId19"/>
+  <drawing r:id="rId20"/>
 </worksheet>
 </file>
--- a/Technology/Hardware/Livent.xlsx
+++ b/Technology/Hardware/Livent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6481B2FD-AADA-B84F-9F7C-D040E3D4C443}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5B8F9B-33CF-204D-9BE3-6E939CD3783E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="167">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -565,18 +565,28 @@
   </si>
   <si>
     <t>Unlevered FCF Forecast</t>
+  </si>
+  <si>
+    <t>Forward P/FCF</t>
+  </si>
+  <si>
+    <t>Dividend Yield</t>
+  </si>
+  <si>
+    <t>FCF Yield</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="168" formatCode="0.0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -923,7 +933,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1074,6 +1084,12 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2204,12 +2220,13 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="Treasuries"/>
       <sheetName val="All Stars"/>
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
-      <sheetName val="7 Powers"/>
+      <sheetName val="My Holdings"/>
+      <sheetName val="Stable Growth"/>
+      <sheetName val="High Growth"/>
       <sheetName val="Compounders"/>
       <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
@@ -2226,14 +2243,14 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
       <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12">
+      <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.7229999999999999E-2</v>
+            <v>3.739E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
@@ -2241,6 +2258,7 @@
       <sheetData sheetId="17"/>
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2368,9 +2386,11 @@
     <v>Powered by Refinitiv</v>
     <v>36.380000000000003</v>
     <v>18.260000000000002</v>
-    <v>1.8238000000000001</v>
-    <v>-0.56000000000000005</v>
-    <v>-2.0849000000000003E-2</v>
+    <v>1.8151999999999999</v>
+    <v>0.4</v>
+    <v>1.5467999999999999E-2</v>
+    <v>-0.06</v>
+    <v>-2.2850000000000001E-3</v>
     <v>USD</v>
     <v>Livent Corporation is a fully integrated lithium company. The Company manufactures lithium for use in a range of lithium products, which are used primarily in lithium-based batteries, specialty polymers and chemical synthesis applications. It is focused on supplying high performance lithium compounds to the electric vehicles (EV) and broader battery markets. The Company also supplies butyllithium, which is used in the production of polymers and pharmaceutical products, as well as a range of specialty lithium compounds including high purity lithium metal, which is used in non-rechargeable batteries and in the production of lightweight materials for aerospace applications. Its product category includes Lithium Hydroxide, Butyllithium, High Purity Lithium Metal, Lithium Carbonate, and Lithium Chloride. It serves a variety of industrial, pharmaceutical, aerospace, electronics, agricultural and polymer applications.</v>
     <v>1350</v>
@@ -2378,24 +2398,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1818 MARKET STREET, PHILADELPHIA, PA, 19103 US</v>
-    <v>26.8</v>
+    <v>26.59</v>
     <v>Chemicals</v>
     <v>Stock</v>
-    <v>45099.980547256251</v>
+    <v>45103.921662071094</v>
     <v>0</v>
-    <v>26.19</v>
-    <v>4725791770</v>
+    <v>25.69</v>
+    <v>4718604254</v>
     <v>LIVENT CORPORATION</v>
     <v>LIVENT CORPORATION</v>
-    <v>26.73</v>
-    <v>16.2271</v>
-    <v>26.86</v>
-    <v>26.3</v>
+    <v>25.86</v>
+    <v>15.9556</v>
+    <v>25.86</v>
+    <v>26.26</v>
+    <v>26.2</v>
     <v>179687900</v>
     <v>LTHM</v>
     <v>LIVENT CORPORATION (XNYS:LTHM)</v>
-    <v>423</v>
-    <v>2848891</v>
+    <v>1615394</v>
+    <v>2842076</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -2427,6 +2448,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2447,6 +2470,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2463,7 +2487,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2474,13 +2498,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2546,13 +2573,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2597,6 +2630,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2604,6 +2640,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2965,10 +3004,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="F87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="H88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H112" sqref="H112"/>
+      <selection pane="bottomRight" activeCell="L96" sqref="L96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3672,18 +3711,18 @@
       </c>
       <c r="P16" s="57">
         <f>Q101/I3</f>
-        <v>5.8113523979340878</v>
+        <v>5.8025138391539599</v>
       </c>
       <c r="Q16" s="57">
         <f>Q101/I28</f>
-        <v>17.278946142595977</v>
+        <v>17.252666376599635</v>
       </c>
       <c r="R16" s="58">
         <f>Q101/I107</f>
-        <v>10.393208203210909</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+        <v>10.377401042445568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3712,7 +3751,7 @@
         <v>328400000</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3749,8 +3788,11 @@
       <c r="Q18" s="20" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="R18" s="20" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3799,14 +3841,18 @@
       </c>
       <c r="P19" s="57">
         <f>Q101/J3</f>
-        <v>4.3716852636447729</v>
+        <v>4.3650363126734506</v>
       </c>
       <c r="Q19" s="64">
         <f>Q101/J28</f>
-        <v>11.067428032786886</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11.050595442622951</v>
+      </c>
+      <c r="R19" s="58">
+        <f>Q101/J106</f>
+        <v>120.61871814928425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>100</v>
       </c>
@@ -3860,7 +3906,7 @@
         <v>1.1050328227571118</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="20" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3908,8 +3954,14 @@
         <f>N19/N3</f>
         <v>0.87613843351548271</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q21" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="R21" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3937,8 +3989,16 @@
       <c r="I22" s="10">
         <v>328400000</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="Q22" s="75">
+        <f>(-1*I98)/Q101</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="76">
+        <f>I107/Q101</f>
+        <v>9.6363241230613281E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3967,7 +4027,7 @@
         <v>0.40379999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -3996,7 +4056,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -4025,7 +4085,7 @@
         <v>335400000</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -4054,7 +4114,7 @@
         <v>0.41239999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -4083,7 +4143,7 @@
         <v>61900000</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -4127,7 +4187,7 @@
         <v>1698000000</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>101</v>
       </c>
@@ -4181,7 +4241,7 @@
         <v>1.4716157205240177</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -4230,7 +4290,7 @@
         <v>0.77322404371584696</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -4259,7 +4319,7 @@
         <v>1.59</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -6186,7 +6246,7 @@
       </c>
       <c r="Q94" s="68">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.7229999999999999E-2</v>
+        <v>3.739E-2</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6222,7 +6282,7 @@
       </c>
       <c r="Q95" s="56" cm="1">
         <f t="array" ref="Q95">_FV(A1,"Beta")</f>
-        <v>1.8238000000000001</v>
+        <v>1.8151999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6293,7 +6353,7 @@
       </c>
       <c r="Q97" s="51">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>0.12252912600000002</v>
+        <v>0.12199647199999999</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6321,8 +6381,8 @@
       <c r="H98" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="I98" s="1" t="s">
-        <v>91</v>
+      <c r="I98" s="1">
+        <v>0</v>
       </c>
       <c r="P98" s="73" t="s">
         <v>136</v>
@@ -6398,7 +6458,7 @@
       </c>
       <c r="Q100" s="49">
         <f>Q99/Q103</f>
-        <v>4.8694647574722617E-2</v>
+        <v>4.8765203619156094E-2</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6434,7 +6494,7 @@
       </c>
       <c r="Q101" s="39" cm="1">
         <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>4725791770</v>
+        <v>4718604254</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6470,7 +6530,7 @@
       </c>
       <c r="Q102" s="49">
         <f>Q101/Q103</f>
-        <v>0.95130535242527736</v>
+        <v>0.95123479638084396</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6506,7 +6566,7 @@
       </c>
       <c r="Q103" s="53">
         <f>Q99+Q101</f>
-        <v>4967691770</v>
+        <v>4960504254</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6602,7 +6662,7 @@
       </c>
       <c r="Q105" s="24">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>0.17046931748673197</v>
+        <v>0.17003210134379501</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6698,7 +6758,7 @@
       <c r="M107" s="30"/>
       <c r="N107" s="66">
         <f>N106*(1+Q107)/(Q108-Q107)</f>
-        <v>8222868029.2605429</v>
+        <v>8247656821.6059742</v>
       </c>
       <c r="O107" s="33" t="s">
         <v>144</v>
@@ -6729,7 +6789,7 @@
       </c>
       <c r="N108" s="66">
         <f>N107+N106</f>
-        <v>9389868029.2605438</v>
+        <v>9414656821.6059742</v>
       </c>
       <c r="O108" s="33" t="s">
         <v>141</v>
@@ -6739,7 +6799,7 @@
       </c>
       <c r="Q108" s="37">
         <f>Q105</f>
-        <v>0.17046931748673197</v>
+        <v>0.17003210134379501</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6754,7 +6814,7 @@
       </c>
       <c r="K110" s="39">
         <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>4779779989.2983484</v>
+        <v>4799696081.5092955</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6781,7 +6841,7 @@
       </c>
       <c r="K113" s="39">
         <f>K110+K111-K112</f>
-        <v>4726879989.2983484</v>
+        <v>4746796081.5092955</v>
       </c>
     </row>
     <row r="114" spans="10:11" ht="20" x14ac:dyDescent="0.25">
@@ -6799,7 +6859,7 @@
       </c>
       <c r="K115" s="42">
         <f>K113/K114</f>
-        <v>18.757460274993445</v>
+        <v>18.83649238694165</v>
       </c>
     </row>
     <row r="116" spans="10:11" ht="20" x14ac:dyDescent="0.25">
@@ -6808,7 +6868,7 @@
       </c>
       <c r="K116" s="54" cm="1">
         <f t="array" ref="K116">_FV(A1,"Previous close",TRUE)</f>
-        <v>26.86</v>
+        <v>25.86</v>
       </c>
     </row>
     <row r="117" spans="10:11" ht="20" x14ac:dyDescent="0.25">
@@ -6817,7 +6877,7 @@
       </c>
       <c r="K117" s="44">
         <f>K115/K116-1</f>
-        <v>-0.30165821761007272</v>
+        <v>-0.27159735549336228</v>
       </c>
     </row>
     <row r="118" spans="10:11" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Livent.xlsx
+++ b/Technology/Hardware/Livent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5B8F9B-33CF-204D-9BE3-6E939CD3783E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36527D43-7773-1C4D-B35B-5AA38A0E7077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -755,7 +755,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -861,62 +861,9 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -933,7 +880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -975,13 +922,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -989,63 +932,10 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="16" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1055,7 +945,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1066,30 +956,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="12" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="39" fontId="11" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="11" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="12" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="16" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1141,7 +1069,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" sz="2400"/>
-              <a:t>LTHM</a:t>
+              <a:t>Livent</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1188,9 +1116,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="8.3880794701986755E-2"/>
-          <c:y val="0.13146648971466493"/>
+          <c:y val="0.1590104985244809"/>
           <c:w val="0.84989403973509936"/>
-          <c:h val="0.72820109828673552"/>
+          <c:h val="0.67005267335722896"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -1583,8 +1511,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.32570005736037955"/>
-          <c:y val="0.90577703002784904"/>
+          <c:x val="0.33497158053918757"/>
+          <c:y val="0.8904746964016419"/>
           <c:w val="0.36449392501434008"/>
           <c:h val="5.4408769574008954E-2"/>
         </c:manualLayout>
@@ -2168,13 +2096,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>15875</xdr:colOff>
       <xdr:row>108</xdr:row>
-      <xdr:rowOff>41274</xdr:rowOff>
+      <xdr:rowOff>41275</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>1587500</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>31749</xdr:rowOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>15876</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2246,7 +2174,7 @@
       <sheetData sheetId="11">
         <row r="8">
           <cell r="C8">
-            <v>3.739E-2</v>
+            <v>3.8539999999999998E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2386,11 +2314,11 @@
     <v>Powered by Refinitiv</v>
     <v>36.380000000000003</v>
     <v>18.260000000000002</v>
-    <v>1.8151999999999999</v>
-    <v>0.4</v>
-    <v>1.5467999999999999E-2</v>
-    <v>-0.06</v>
-    <v>-2.2850000000000001E-3</v>
+    <v>1.8237000000000001</v>
+    <v>0.59</v>
+    <v>2.1981999999999998E-2</v>
+    <v>0.17</v>
+    <v>6.1980000000000004E-3</v>
     <v>USD</v>
     <v>Livent Corporation is a fully integrated lithium company. The Company manufactures lithium for use in a range of lithium products, which are used primarily in lithium-based batteries, specialty polymers and chemical synthesis applications. It is focused on supplying high performance lithium compounds to the electric vehicles (EV) and broader battery markets. The Company also supplies butyllithium, which is used in the production of polymers and pharmaceutical products, as well as a range of specialty lithium compounds including high purity lithium metal, which is used in non-rechargeable batteries and in the production of lightweight materials for aerospace applications. Its product category includes Lithium Hydroxide, Butyllithium, High Purity Lithium Metal, Lithium Carbonate, and Lithium Chloride. It serves a variety of industrial, pharmaceutical, aerospace, electronics, agricultural and polymer applications.</v>
     <v>1350</v>
@@ -2398,25 +2326,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1818 MARKET STREET, PHILADELPHIA, PA, 19103 US</v>
-    <v>26.59</v>
+    <v>27.64</v>
     <v>Chemicals</v>
     <v>Stock</v>
-    <v>45103.921662071094</v>
+    <v>45107.999001503907</v>
     <v>0</v>
-    <v>25.69</v>
-    <v>4718604254</v>
+    <v>26.61</v>
+    <v>4928839097</v>
     <v>LIVENT CORPORATION</v>
     <v>LIVENT CORPORATION</v>
-    <v>25.86</v>
-    <v>15.9556</v>
-    <v>25.86</v>
-    <v>26.26</v>
-    <v>26.2</v>
+    <v>26.94</v>
+    <v>16.560199999999998</v>
+    <v>26.84</v>
+    <v>27.43</v>
+    <v>27.6</v>
     <v>179687900</v>
     <v>LTHM</v>
     <v>LIVENT CORPORATION (XNYS:LTHM)</v>
-    <v>1615394</v>
-    <v>2842076</v>
+    <v>1821111</v>
+    <v>2463637</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -3004,10 +2932,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="H88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="G84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L96" sqref="L96"/>
+      <selection pane="bottomRight" activeCell="K95" sqref="K95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3045,19 +2973,19 @@
       <c r="I1" s="8">
         <v>2022</v>
       </c>
-      <c r="J1" s="25">
+      <c r="J1" s="23">
         <v>2023</v>
       </c>
-      <c r="K1" s="25">
+      <c r="K1" s="23">
         <v>2024</v>
       </c>
-      <c r="L1" s="25">
+      <c r="L1" s="23">
         <v>2025</v>
       </c>
-      <c r="M1" s="25">
+      <c r="M1" s="23">
         <v>2026</v>
       </c>
-      <c r="N1" s="25">
+      <c r="N1" s="23">
         <v>2027</v>
       </c>
     </row>
@@ -3133,19 +3061,19 @@
       <c r="I3" s="1">
         <v>813200000</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="24">
         <v>1081000000</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="24">
         <v>1394000000</v>
       </c>
-      <c r="L3" s="26">
+      <c r="L3" s="24">
         <v>1465000000</v>
       </c>
-      <c r="M3" s="26">
+      <c r="M3" s="24">
         <v>1489000000</v>
       </c>
-      <c r="N3" s="26">
+      <c r="N3" s="24">
         <v>2196000000</v>
       </c>
       <c r="O3" s="19" t="s">
@@ -3602,7 +3530,7 @@
         <f>I22/(I72+I56+I61)</f>
         <v>0.19607140724819391</v>
       </c>
-      <c r="R13" s="59">
+      <c r="R13" s="32">
         <f>I67/I72</f>
         <v>0.27257501744591767</v>
       </c>
@@ -3705,21 +3633,21 @@
       <c r="I16" s="1">
         <v>484800000</v>
       </c>
-      <c r="O16" s="27">
+      <c r="O16" s="25">
         <f>(I35+H35+G35+F35+E35)/5</f>
         <v>8.3402160590696592E-2</v>
       </c>
-      <c r="P16" s="57">
+      <c r="P16" s="30">
         <f>Q101/I3</f>
-        <v>5.8025138391539599</v>
-      </c>
-      <c r="Q16" s="57">
+        <v>6.0610416834727001</v>
+      </c>
+      <c r="Q16" s="30">
         <f>Q101/I28</f>
-        <v>17.252666376599635</v>
-      </c>
-      <c r="R16" s="58">
+        <v>18.021349531992687</v>
+      </c>
+      <c r="R16" s="31">
         <f>Q101/I107</f>
-        <v>10.377401042445568</v>
+        <v>10.839760494831758</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3820,36 +3748,36 @@
       <c r="I19" s="10">
         <v>663800000</v>
       </c>
-      <c r="J19" s="60">
+      <c r="J19" s="33">
         <v>570500000</v>
       </c>
-      <c r="K19" s="60">
+      <c r="K19" s="33">
         <v>670000000</v>
       </c>
-      <c r="L19" s="60">
+      <c r="L19" s="33">
         <v>786000000</v>
       </c>
-      <c r="M19" s="60">
+      <c r="M19" s="33">
         <v>914000000</v>
       </c>
-      <c r="N19" s="60">
+      <c r="N19" s="33">
         <v>1924000000</v>
       </c>
-      <c r="O19" s="28">
+      <c r="O19" s="26">
         <f>I40-I56-I61</f>
         <v>-52900000</v>
       </c>
-      <c r="P19" s="57">
+      <c r="P19" s="30">
         <f>Q101/J3</f>
-        <v>4.3650363126734506</v>
-      </c>
-      <c r="Q19" s="64">
+        <v>4.559518128584644</v>
+      </c>
+      <c r="Q19" s="37">
         <f>Q101/J28</f>
-        <v>11.050595442622951</v>
-      </c>
-      <c r="R19" s="58">
+        <v>11.542948704918032</v>
+      </c>
+      <c r="R19" s="31">
         <f>Q101/J106</f>
-        <v>120.61871814928425</v>
+        <v>125.99281945296524</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3934,23 +3862,23 @@
       <c r="I21" s="2">
         <v>0.81630000000000003</v>
       </c>
-      <c r="J21" s="61">
+      <c r="J21" s="34">
         <f t="shared" ref="J21:M21" si="9">J19/J3</f>
         <v>0.52775208140610541</v>
       </c>
-      <c r="K21" s="61">
+      <c r="K21" s="34">
         <f t="shared" si="9"/>
         <v>0.48063127690100432</v>
       </c>
-      <c r="L21" s="61">
+      <c r="L21" s="34">
         <f t="shared" si="9"/>
         <v>0.53651877133105808</v>
       </c>
-      <c r="M21" s="61">
+      <c r="M21" s="34">
         <f t="shared" si="9"/>
         <v>0.61383478844862327</v>
       </c>
-      <c r="N21" s="61">
+      <c r="N21" s="34">
         <f>N19/N3</f>
         <v>0.87613843351548271</v>
       </c>
@@ -3989,13 +3917,13 @@
       <c r="I22" s="10">
         <v>328400000</v>
       </c>
-      <c r="Q22" s="75">
+      <c r="Q22" s="41">
         <f>(-1*I98)/Q101</f>
         <v>0</v>
       </c>
-      <c r="R22" s="76">
+      <c r="R22" s="42">
         <f>I107/Q101</f>
-        <v>9.6363241230613281E-2</v>
+        <v>9.2252960798975742E-2</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -4171,19 +4099,19 @@
       <c r="I28" s="11">
         <v>273500000</v>
       </c>
-      <c r="J28" s="62">
+      <c r="J28" s="35">
         <v>427000000</v>
       </c>
-      <c r="K28" s="62">
+      <c r="K28" s="35">
         <v>521000000</v>
       </c>
-      <c r="L28" s="62">
+      <c r="L28" s="35">
         <v>644000000</v>
       </c>
-      <c r="M28" s="62">
+      <c r="M28" s="35">
         <v>687000000</v>
       </c>
-      <c r="N28" s="62">
+      <c r="N28" s="35">
         <v>1698000000</v>
       </c>
     </row>
@@ -4269,23 +4197,23 @@
       <c r="I30" s="2">
         <v>0.33629999999999999</v>
       </c>
-      <c r="J30" s="63">
+      <c r="J30" s="36">
         <f>J28/J3</f>
         <v>0.39500462534690101</v>
       </c>
-      <c r="K30" s="63">
+      <c r="K30" s="36">
         <f t="shared" ref="K30:N30" si="16">K28/K3</f>
         <v>0.37374461979913914</v>
       </c>
-      <c r="L30" s="63">
+      <c r="L30" s="36">
         <f t="shared" si="16"/>
         <v>0.4395904436860068</v>
       </c>
-      <c r="M30" s="63">
+      <c r="M30" s="36">
         <f t="shared" si="16"/>
         <v>0.4613834788448623</v>
       </c>
-      <c r="N30" s="63">
+      <c r="N30" s="36">
         <f t="shared" si="16"/>
         <v>0.77322404371584696</v>
       </c>
@@ -5840,10 +5768,10 @@
       <c r="I83" s="1">
         <v>-22900000</v>
       </c>
-      <c r="P83" s="71" t="s">
+      <c r="P83" s="67" t="s">
         <v>123</v>
       </c>
-      <c r="Q83" s="72"/>
+      <c r="Q83" s="68"/>
     </row>
     <row r="84" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5873,10 +5801,10 @@
       <c r="I84" s="1">
         <v>18900000</v>
       </c>
-      <c r="P84" s="73" t="s">
+      <c r="P84" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="Q84" s="74"/>
+      <c r="Q84" s="69"/>
     </row>
     <row r="85" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5906,10 +5834,10 @@
       <c r="I85" s="1">
         <v>4400000</v>
       </c>
-      <c r="P85" s="46" t="s">
+      <c r="P85" s="50" t="s">
         <v>125</v>
       </c>
-      <c r="Q85" s="47">
+      <c r="Q85" s="51">
         <f>I17</f>
         <v>328400000</v>
       </c>
@@ -5942,10 +5870,10 @@
       <c r="I86" s="1">
         <v>5400000</v>
       </c>
-      <c r="P86" s="46" t="s">
+      <c r="P86" s="50" t="s">
         <v>126</v>
       </c>
-      <c r="Q86" s="47">
+      <c r="Q86" s="51">
         <f>I56</f>
         <v>0</v>
       </c>
@@ -5978,10 +5906,10 @@
       <c r="I87" s="10">
         <v>454700000</v>
       </c>
-      <c r="P87" s="46" t="s">
+      <c r="P87" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="Q87" s="47">
+      <c r="Q87" s="51">
         <f>I61</f>
         <v>241900000</v>
       </c>
@@ -6014,10 +5942,10 @@
       <c r="I88" s="1">
         <v>-336900000</v>
       </c>
-      <c r="P88" s="48" t="s">
+      <c r="P88" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="Q88" s="49">
+      <c r="Q88" s="53">
         <f>Q85/(Q86+Q87)</f>
         <v>1.3575857792476229</v>
       </c>
@@ -6064,10 +5992,10 @@
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
-      <c r="P89" s="46" t="s">
+      <c r="P89" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="Q89" s="47">
+      <c r="Q89" s="51">
         <f>I27</f>
         <v>61900000</v>
       </c>
@@ -6100,10 +6028,10 @@
       <c r="I90" s="1">
         <v>-47100000</v>
       </c>
-      <c r="P90" s="46" t="s">
+      <c r="P90" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="Q90" s="47">
+      <c r="Q90" s="51">
         <f>I25</f>
         <v>335400000</v>
       </c>
@@ -6136,10 +6064,10 @@
       <c r="I91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P91" s="48" t="s">
+      <c r="P91" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="Q91" s="49">
+      <c r="Q91" s="53">
         <f>Q89/Q90</f>
         <v>0.18455575432319618</v>
       </c>
@@ -6172,10 +6100,10 @@
       <c r="I92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P92" s="50" t="s">
+      <c r="P92" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="Q92" s="51">
+      <c r="Q92" s="53">
         <f>Q88*(1-Q91)</f>
         <v>1.1070355117001338</v>
       </c>
@@ -6208,10 +6136,10 @@
       <c r="I93" s="1">
         <v>-364700000</v>
       </c>
-      <c r="P93" s="73" t="s">
+      <c r="P93" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="Q93" s="74"/>
+      <c r="Q93" s="69"/>
     </row>
     <row r="94" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -6241,12 +6169,12 @@
       <c r="I94" s="10">
         <v>-364700000</v>
       </c>
-      <c r="P94" s="46" t="s">
+      <c r="P94" s="50" t="s">
         <v>132</v>
       </c>
-      <c r="Q94" s="68">
+      <c r="Q94" s="54">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.739E-2</v>
+        <v>3.8539999999999998E-2</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6282,7 +6210,7 @@
       </c>
       <c r="Q95" s="56" cm="1">
         <f t="array" ref="Q95">_FV(A1,"Beta")</f>
-        <v>1.8151999999999999</v>
+        <v>1.8237000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6313,10 +6241,10 @@
       <c r="I96" s="1">
         <v>3200000</v>
       </c>
-      <c r="P96" s="46" t="s">
+      <c r="P96" s="50" t="s">
         <v>134</v>
       </c>
-      <c r="Q96" s="52">
+      <c r="Q96" s="57">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -6348,12 +6276,12 @@
       <c r="I97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P97" s="50" t="s">
+      <c r="P97" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="Q97" s="51">
+      <c r="Q97" s="53">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>0.12199647199999999</v>
+        <v>0.12144540200000001</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6384,10 +6312,10 @@
       <c r="I98" s="1">
         <v>0</v>
       </c>
-      <c r="P98" s="73" t="s">
+      <c r="P98" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="Q98" s="74"/>
+      <c r="Q98" s="69"/>
     </row>
     <row r="99" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -6417,10 +6345,10 @@
       <c r="I99" s="1">
         <v>-12500000</v>
       </c>
-      <c r="P99" s="46" t="s">
+      <c r="P99" s="50" t="s">
         <v>137</v>
       </c>
-      <c r="Q99" s="47">
+      <c r="Q99" s="51">
         <f>Q86+Q87</f>
         <v>241900000</v>
       </c>
@@ -6453,12 +6381,12 @@
       <c r="I100" s="10">
         <v>-12500000</v>
       </c>
-      <c r="P100" s="48" t="s">
+      <c r="P100" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="Q100" s="49">
+      <c r="Q100" s="53">
         <f>Q99/Q103</f>
-        <v>4.8765203619156094E-2</v>
+        <v>4.6782480311247467E-2</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6492,9 +6420,9 @@
       <c r="P101" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="Q101" s="39" cm="1">
+      <c r="Q101" s="44" cm="1">
         <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>4718604254</v>
+        <v>4928839097</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6525,12 +6453,12 @@
       <c r="I102" s="10">
         <v>76000000</v>
       </c>
-      <c r="P102" s="48" t="s">
+      <c r="P102" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="Q102" s="49">
+      <c r="Q102" s="53">
         <f>Q101/Q103</f>
-        <v>0.95123479638084396</v>
+        <v>0.95321751968875257</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6561,12 +6489,12 @@
       <c r="I103" s="1">
         <v>113000000</v>
       </c>
-      <c r="P103" s="50" t="s">
+      <c r="P103" s="52" t="s">
         <v>141</v>
       </c>
-      <c r="Q103" s="53">
+      <c r="Q103" s="58">
         <f>Q99+Q101</f>
-        <v>4960504254</v>
+        <v>5170739097</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6597,10 +6525,10 @@
       <c r="I104" s="11">
         <v>189000000</v>
       </c>
-      <c r="P104" s="73" t="s">
+      <c r="P104" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="Q104" s="74"/>
+      <c r="Q104" s="69"/>
     </row>
     <row r="105" spans="1:17" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -6634,35 +6562,35 @@
         <f>(I22*(1-$Q$91))+I77+I88+I81</f>
         <v>413291890.28026235</v>
       </c>
-      <c r="J105" s="29">
+      <c r="J105" s="27">
         <f>I105*(1+$Q$106)</f>
         <v>509257699.37006921</v>
       </c>
-      <c r="K105" s="29">
+      <c r="K105" s="27">
         <f t="shared" ref="K105:N105" si="21">J105*(1+$Q$106)</f>
         <v>627506637.48042405</v>
       </c>
-      <c r="L105" s="29">
+      <c r="L105" s="27">
         <f t="shared" si="21"/>
         <v>773212816.55448484</v>
       </c>
-      <c r="M105" s="29">
+      <c r="M105" s="27">
         <f t="shared" si="21"/>
         <v>952751770.21975398</v>
       </c>
-      <c r="N105" s="29">
+      <c r="N105" s="27">
         <f t="shared" si="21"/>
         <v>1173979422.2525163</v>
       </c>
-      <c r="O105" s="30" t="s">
+      <c r="O105" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="P105" s="23" t="s">
+      <c r="P105" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="Q105" s="24">
+      <c r="Q105" s="60">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>0.17003210134379501</v>
+        <v>0.16755375190200675</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6698,34 +6626,34 @@
         <f t="shared" si="22"/>
         <v>16.223484848484848</v>
       </c>
-      <c r="J106" s="65">
+      <c r="J106" s="38">
         <v>39120000</v>
       </c>
-      <c r="K106" s="65">
+      <c r="K106" s="38">
         <v>67915000</v>
       </c>
-      <c r="L106" s="65">
+      <c r="L106" s="38">
         <v>266700000</v>
       </c>
-      <c r="M106" s="65">
+      <c r="M106" s="38">
         <v>480900000</v>
       </c>
-      <c r="N106" s="65">
+      <c r="N106" s="38">
         <v>1167000000</v>
       </c>
-      <c r="O106" s="30" t="s">
+      <c r="O106" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="P106" s="31" t="s">
+      <c r="P106" s="61" t="s">
         <v>143</v>
       </c>
-      <c r="Q106" s="32">
+      <c r="Q106" s="62">
         <f>(SUM(J4:N4)/5)</f>
         <v>0.23219862607207306</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="67" t="s">
+      <c r="A107" s="40" t="s">
         <v>159</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -6752,139 +6680,139 @@
       <c r="I107" s="1">
         <v>454700000</v>
       </c>
-      <c r="J107" s="30"/>
-      <c r="K107" s="30"/>
-      <c r="L107" s="30"/>
-      <c r="M107" s="30"/>
-      <c r="N107" s="66">
+      <c r="J107" s="28"/>
+      <c r="K107" s="28"/>
+      <c r="L107" s="28"/>
+      <c r="M107" s="28"/>
+      <c r="N107" s="39">
         <f>N106*(1+Q107)/(Q108-Q107)</f>
-        <v>8247656821.6059742</v>
-      </c>
-      <c r="O107" s="33" t="s">
+        <v>8391045370.8876476</v>
+      </c>
+      <c r="O107" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="P107" s="34" t="s">
+      <c r="P107" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="Q107" s="35">
+      <c r="Q107" s="64">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="J108" s="66">
+      <c r="J108" s="39">
         <f t="shared" ref="J108:M108" si="23">J107+J106</f>
         <v>39120000</v>
       </c>
-      <c r="K108" s="66">
+      <c r="K108" s="39">
         <f t="shared" si="23"/>
         <v>67915000</v>
       </c>
-      <c r="L108" s="66">
+      <c r="L108" s="39">
         <f t="shared" si="23"/>
         <v>266700000</v>
       </c>
-      <c r="M108" s="66">
+      <c r="M108" s="39">
         <f t="shared" si="23"/>
         <v>480900000</v>
       </c>
-      <c r="N108" s="66">
+      <c r="N108" s="39">
         <f>N107+N106</f>
-        <v>9414656821.6059742</v>
-      </c>
-      <c r="O108" s="33" t="s">
+        <v>9558045370.8876476</v>
+      </c>
+      <c r="O108" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="P108" s="36" t="s">
+      <c r="P108" s="65" t="s">
         <v>146</v>
       </c>
-      <c r="Q108" s="37">
+      <c r="Q108" s="62">
         <f>Q105</f>
-        <v>0.17003210134379501</v>
+        <v>0.16755375190200675</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="J109" s="69" t="s">
+      <c r="J109" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="K109" s="70"/>
+      <c r="K109" s="66"/>
     </row>
     <row r="110" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="J110" s="38" t="s">
+      <c r="J110" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="K110" s="39">
+      <c r="K110" s="44">
         <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>4799696081.5092955</v>
+        <v>4915078355.9791451</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="J111" s="38" t="s">
+      <c r="J111" s="43" t="s">
         <v>149</v>
       </c>
-      <c r="K111" s="39">
+      <c r="K111" s="44">
         <f>I40</f>
         <v>189000000</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="J112" s="38" t="s">
+      <c r="J112" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="K112" s="39">
+      <c r="K112" s="44">
         <f>Q99</f>
         <v>241900000</v>
       </c>
     </row>
     <row r="113" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J113" s="38" t="s">
+      <c r="J113" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="K113" s="39">
+      <c r="K113" s="44">
         <f>K110+K111-K112</f>
-        <v>4746796081.5092955</v>
+        <v>4862178355.9791451</v>
       </c>
     </row>
     <row r="114" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J114" s="38" t="s">
+      <c r="J114" s="43" t="s">
         <v>158</v>
       </c>
-      <c r="K114" s="40">
+      <c r="K114" s="43">
         <f>I34*(1+(5*0.05))</f>
         <v>252000000</v>
       </c>
     </row>
     <row r="115" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J115" s="41" t="s">
+      <c r="J115" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="K115" s="42">
+      <c r="K115" s="46">
         <f>K113/K114</f>
-        <v>18.83649238694165</v>
+        <v>19.294358555472797</v>
       </c>
     </row>
     <row r="116" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J116" s="38" t="s">
+      <c r="J116" s="43" t="s">
         <v>152</v>
       </c>
-      <c r="K116" s="54" cm="1">
+      <c r="K116" s="47" cm="1">
         <f t="array" ref="K116">_FV(A1,"Previous close",TRUE)</f>
-        <v>25.86</v>
+        <v>26.84</v>
       </c>
     </row>
     <row r="117" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J117" s="43" t="s">
+      <c r="J117" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="K117" s="44">
+      <c r="K117" s="48">
         <f>K115/K116-1</f>
-        <v>-0.27159735549336228</v>
+        <v>-0.28113418198685558</v>
       </c>
     </row>
     <row r="118" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J118" s="43" t="s">
+      <c r="J118" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="K118" s="45" t="str">
+      <c r="K118" s="49" t="str">
         <f>IF(K115&gt;K116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Hardware/Livent.xlsx
+++ b/Technology/Hardware/Livent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36527D43-7773-1C4D-B35B-5AA38A0E7077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F19623-CB0E-4241-96B2-C93F6D1F1114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2139,7 +2139,6 @@
     <sheetNames>
       <sheetName val="Factor Scoring"/>
       <sheetName val="Factor Investing"/>
-      <sheetName val="Concentrated"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2153,10 +2152,12 @@
       <sheetName val="ROIC Port"/>
       <sheetName val="To Be Modeled"/>
       <sheetName val="My Holdings"/>
+      <sheetName val="My Stocks"/>
+      <sheetName val="Short List"/>
       <sheetName val="Stable Growth"/>
       <sheetName val="High Growth"/>
+      <sheetName val="Small Caps"/>
       <sheetName val="Compounders"/>
-      <sheetName val="Small Cap Gems"/>
       <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
@@ -2170,14 +2171,14 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
+      <sheetData sheetId="10">
         <row r="8">
           <cell r="C8">
-            <v>3.8539999999999998E-2</v>
+            <v>4.0410000000000001E-2</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
@@ -2187,6 +2188,7 @@
       <sheetData sheetId="18"/>
       <sheetData sheetId="19"/>
       <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2314,11 +2316,11 @@
     <v>Powered by Refinitiv</v>
     <v>36.380000000000003</v>
     <v>18.260000000000002</v>
-    <v>1.8237000000000001</v>
-    <v>0.59</v>
-    <v>2.1981999999999998E-2</v>
-    <v>0.17</v>
-    <v>6.1980000000000004E-3</v>
+    <v>1.8274999999999999</v>
+    <v>0.46</v>
+    <v>1.7075E-2</v>
+    <v>-0.01</v>
+    <v>-3.6499999999999998E-4</v>
     <v>USD</v>
     <v>Livent Corporation is a fully integrated lithium company. The Company manufactures lithium for use in a range of lithium products, which are used primarily in lithium-based batteries, specialty polymers and chemical synthesis applications. It is focused on supplying high performance lithium compounds to the electric vehicles (EV) and broader battery markets. The Company also supplies butyllithium, which is used in the production of polymers and pharmaceutical products, as well as a range of specialty lithium compounds including high purity lithium metal, which is used in non-rechargeable batteries and in the production of lightweight materials for aerospace applications. Its product category includes Lithium Hydroxide, Butyllithium, High Purity Lithium Metal, Lithium Carbonate, and Lithium Chloride. It serves a variety of industrial, pharmaceutical, aerospace, electronics, agricultural and polymer applications.</v>
     <v>1350</v>
@@ -2326,25 +2328,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1818 MARKET STREET, PHILADELPHIA, PA, 19103 US</v>
-    <v>27.64</v>
+    <v>27.88</v>
     <v>Chemicals</v>
     <v>Stock</v>
-    <v>45107.999001503907</v>
+    <v>45114.999920080467</v>
     <v>0</v>
-    <v>26.61</v>
-    <v>4928839097</v>
+    <v>26.85</v>
+    <v>4923448000</v>
     <v>LIVENT CORPORATION</v>
     <v>LIVENT CORPORATION</v>
+    <v>26.85</v>
+    <v>16.6219</v>
     <v>26.94</v>
-    <v>16.560199999999998</v>
-    <v>26.84</v>
-    <v>27.43</v>
-    <v>27.6</v>
+    <v>27.4</v>
+    <v>27.39</v>
     <v>179687900</v>
     <v>LTHM</v>
     <v>LIVENT CORPORATION (XNYS:LTHM)</v>
-    <v>1821111</v>
-    <v>2463637</v>
+    <v>1530583</v>
+    <v>2414576</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -2935,7 +2937,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="G84" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K95" sqref="K95"/>
+      <selection pane="bottomRight" activeCell="L101" sqref="L101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3639,15 +3641,15 @@
       </c>
       <c r="P16" s="30">
         <f>Q101/I3</f>
-        <v>6.0610416834727001</v>
+        <v>6.0544121987211019</v>
       </c>
       <c r="Q16" s="30">
         <f>Q101/I28</f>
-        <v>18.021349531992687</v>
+        <v>18.001638025594151</v>
       </c>
       <c r="R16" s="31">
         <f>Q101/I107</f>
-        <v>10.839760494831758</v>
+        <v>10.827904112601715</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3769,15 +3771,15 @@
       </c>
       <c r="P19" s="30">
         <f>Q101/J3</f>
-        <v>4.559518128584644</v>
+        <v>4.5545309898242365</v>
       </c>
       <c r="Q19" s="37">
         <f>Q101/J28</f>
-        <v>11.542948704918032</v>
+        <v>11.53032318501171</v>
       </c>
       <c r="R19" s="31">
         <f>Q101/J106</f>
-        <v>125.99281945296524</v>
+        <v>125.85501022494887</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3923,7 +3925,7 @@
       </c>
       <c r="R22" s="42">
         <f>I107/Q101</f>
-        <v>9.2252960798975742E-2</v>
+        <v>9.2353976319034956E-2</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6174,7 +6176,7 @@
       </c>
       <c r="Q94" s="54">
         <f>[1]Treasuries!$C$8</f>
-        <v>3.8539999999999998E-2</v>
+        <v>4.0410000000000001E-2</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6210,7 +6212,7 @@
       </c>
       <c r="Q95" s="56" cm="1">
         <f t="array" ref="Q95">_FV(A1,"Beta")</f>
-        <v>1.8237000000000001</v>
+        <v>1.8274999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6281,7 +6283,7 @@
       </c>
       <c r="Q97" s="53">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>0.12144540200000001</v>
+        <v>0.120070725</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6386,7 +6388,7 @@
       </c>
       <c r="Q100" s="53">
         <f>Q99/Q103</f>
-        <v>4.6782480311247467E-2</v>
+        <v>4.6831307396907239E-2</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6422,7 +6424,7 @@
       </c>
       <c r="Q101" s="44" cm="1">
         <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>4928839097</v>
+        <v>4923448000</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6458,7 +6460,7 @@
       </c>
       <c r="Q102" s="53">
         <f>Q101/Q103</f>
-        <v>0.95321751968875257</v>
+        <v>0.95316869260309278</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6494,7 +6496,7 @@
       </c>
       <c r="Q103" s="58">
         <f>Q99+Q101</f>
-        <v>5170739097</v>
+        <v>5165348000</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6590,7 +6592,7 @@
       </c>
       <c r="Q105" s="60">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>0.16755375190200675</v>
+        <v>0.16629157631587696</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6686,7 +6688,7 @@
       <c r="M107" s="28"/>
       <c r="N107" s="39">
         <f>N106*(1+Q107)/(Q108-Q107)</f>
-        <v>8391045370.8876476</v>
+        <v>8466003644.3063278</v>
       </c>
       <c r="O107" s="29" t="s">
         <v>144</v>
@@ -6717,7 +6719,7 @@
       </c>
       <c r="N108" s="39">
         <f>N107+N106</f>
-        <v>9558045370.8876476</v>
+        <v>9633003644.3063278</v>
       </c>
       <c r="O108" s="29" t="s">
         <v>141</v>
@@ -6727,7 +6729,7 @@
       </c>
       <c r="Q108" s="62">
         <f>Q105</f>
-        <v>0.16755375190200675</v>
+        <v>0.16629157631587696</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6742,7 +6744,7 @@
       </c>
       <c r="K110" s="44">
         <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>4915078355.9791451</v>
+        <v>4975515053.8507719</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6769,7 +6771,7 @@
       </c>
       <c r="K113" s="44">
         <f>K110+K111-K112</f>
-        <v>4862178355.9791451</v>
+        <v>4922615053.8507719</v>
       </c>
     </row>
     <row r="114" spans="10:11" ht="20" x14ac:dyDescent="0.25">
@@ -6787,7 +6789,7 @@
       </c>
       <c r="K115" s="46">
         <f>K113/K114</f>
-        <v>19.294358555472797</v>
+        <v>19.534186721630046</v>
       </c>
     </row>
     <row r="116" spans="10:11" ht="20" x14ac:dyDescent="0.25">
@@ -6796,7 +6798,7 @@
       </c>
       <c r="K116" s="47" cm="1">
         <f t="array" ref="K116">_FV(A1,"Previous close",TRUE)</f>
-        <v>26.84</v>
+        <v>26.94</v>
       </c>
     </row>
     <row r="117" spans="10:11" ht="20" x14ac:dyDescent="0.25">
@@ -6805,7 +6807,7 @@
       </c>
       <c r="K117" s="48">
         <f>K115/K116-1</f>
-        <v>-0.28113418198685558</v>
+        <v>-0.27490027016963459</v>
       </c>
     </row>
     <row r="118" spans="10:11" ht="20" x14ac:dyDescent="0.25">

--- a/Technology/Hardware/Livent.xlsx
+++ b/Technology/Hardware/Livent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F19623-CB0E-4241-96B2-C93F6D1F1114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6147DC5A-C13A-3A40-B4C1-175E32F87D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -880,7 +880,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -952,7 +952,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment indent="1"/>
     </xf>
@@ -2137,8 +2136,7 @@
       <xxl21:absoluteUrl r:id="rId2"/>
     </xxl21:alternateUrls>
     <sheetNames>
-      <sheetName val="Factor Scoring"/>
-      <sheetName val="Factor Investing"/>
+      <sheetName val="Treasuries"/>
       <sheetName val="Hardware"/>
       <sheetName val="Software"/>
       <sheetName val="Consumer"/>
@@ -2147,21 +2145,22 @@
       <sheetName val="Industrials"/>
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
-      <sheetName val="Treasuries"/>
-      <sheetName val="All Stars"/>
-      <sheetName val="ROIC Port"/>
-      <sheetName val="To Be Modeled"/>
-      <sheetName val="My Holdings"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Compounders"/>
+      <sheetName val="GARP"/>
+      <sheetName val="Value"/>
+      <sheetName val="Aggressive Growth"/>
+      <sheetName val="Other"/>
       <sheetName val="Short List"/>
-      <sheetName val="Stable Growth"/>
-      <sheetName val="High Growth"/>
-      <sheetName val="Small Caps"/>
-      <sheetName val="Compounders"/>
-      <sheetName val="Private Companies"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
+      <sheetData sheetId="0">
+        <row r="8">
+          <cell r="C8">
+            <v>4.0480000000000002E-2</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="1"/>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
@@ -2171,24 +2170,12 @@
       <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10">
-        <row r="8">
-          <cell r="C8">
-            <v>4.0410000000000001E-2</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="10"/>
       <sheetData sheetId="11"/>
       <sheetData sheetId="12"/>
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2317,10 +2304,8 @@
     <v>36.380000000000003</v>
     <v>18.260000000000002</v>
     <v>1.8274999999999999</v>
-    <v>0.46</v>
-    <v>1.7075E-2</v>
-    <v>-0.01</v>
-    <v>-3.6499999999999998E-4</v>
+    <v>0.96</v>
+    <v>3.5035999999999998E-2</v>
     <v>USD</v>
     <v>Livent Corporation is a fully integrated lithium company. The Company manufactures lithium for use in a range of lithium products, which are used primarily in lithium-based batteries, specialty polymers and chemical synthesis applications. It is focused on supplying high performance lithium compounds to the electric vehicles (EV) and broader battery markets. The Company also supplies butyllithium, which is used in the production of polymers and pharmaceutical products, as well as a range of specialty lithium compounds including high purity lithium metal, which is used in non-rechargeable batteries and in the production of lightweight materials for aerospace applications. Its product category includes Lithium Hydroxide, Butyllithium, High Purity Lithium Metal, Lithium Carbonate, and Lithium Chloride. It serves a variety of industrial, pharmaceutical, aerospace, electronics, agricultural and polymer applications.</v>
     <v>1350</v>
@@ -2328,25 +2313,24 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1818 MARKET STREET, PHILADELPHIA, PA, 19103 US</v>
-    <v>27.88</v>
+    <v>28.37</v>
     <v>Chemicals</v>
     <v>Stock</v>
-    <v>45114.999920080467</v>
+    <v>45117.995933506252</v>
     <v>0</v>
-    <v>26.85</v>
-    <v>4923448000</v>
+    <v>27.26</v>
+    <v>5095948844</v>
     <v>LIVENT CORPORATION</v>
     <v>LIVENT CORPORATION</v>
-    <v>26.85</v>
-    <v>16.6219</v>
-    <v>26.94</v>
+    <v>27.33</v>
+    <v>17.498100000000001</v>
     <v>27.4</v>
-    <v>27.39</v>
+    <v>28.36</v>
     <v>179687900</v>
     <v>LTHM</v>
     <v>LIVENT CORPORATION (XNYS:LTHM)</v>
-    <v>1530583</v>
-    <v>2414576</v>
+    <v>1868</v>
+    <v>2383348</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -2378,8 +2362,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2400,7 +2382,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2417,7 +2398,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2428,16 +2409,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2503,19 +2481,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Delayed 15 minutes</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2560,9 +2532,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2570,9 +2539,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2934,10 +2900,10 @@
   <dimension ref="A1:AL118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G84" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="F101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L101" sqref="L101"/>
+      <selection pane="bottomRight" activeCell="K130" sqref="K130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3064,13 +3030,13 @@
         <v>813200000</v>
       </c>
       <c r="J3" s="24">
-        <v>1081000000</v>
+        <v>1087000000</v>
       </c>
       <c r="K3" s="24">
-        <v>1394000000</v>
+        <v>1392000000</v>
       </c>
       <c r="L3" s="24">
-        <v>1465000000</v>
+        <v>1486000000</v>
       </c>
       <c r="M3" s="24">
         <v>1489000000</v>
@@ -3109,39 +3075,39 @@
         <v>0.273747841105354</v>
       </c>
       <c r="F4" s="15">
-        <f t="shared" ref="F4:N4" si="0">(F3/E3)-1</f>
+        <f t="shared" ref="F4:I4" si="0">(F3/E3)-1</f>
         <v>-0.12225988700564971</v>
       </c>
       <c r="G4" s="15">
         <f t="shared" si="0"/>
         <v>-0.25798146240988673</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="15">
         <f t="shared" si="0"/>
         <v>0.45870922970159622</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="15">
         <f t="shared" si="0"/>
         <v>0.93434823977164605</v>
       </c>
       <c r="J4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.32931628135759961</v>
+        <f t="shared" ref="J4:N4" si="1">(J3/I3)-1</f>
+        <v>0.33669454008853905</v>
       </c>
       <c r="K4" s="16">
-        <f t="shared" si="0"/>
-        <v>0.28954671600370019</v>
+        <f t="shared" si="1"/>
+        <v>0.28058877644894209</v>
       </c>
       <c r="L4" s="16">
-        <f t="shared" si="0"/>
-        <v>5.0932568149210988E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.7528735632183867E-2</v>
       </c>
       <c r="M4" s="16">
-        <f t="shared" si="0"/>
-        <v>1.6382252559727029E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.0188425302827273E-3</v>
       </c>
       <c r="N4" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.47481531229012752</v>
       </c>
       <c r="O4" s="17">
@@ -3325,31 +3291,31 @@
         <v>#VALUE!</v>
       </c>
       <c r="C9" s="15">
-        <f t="shared" ref="C9:I9" si="1">C8/C3</f>
+        <f t="shared" ref="C9:I9" si="2">C8/C3</f>
         <v>1.1737978038621734E-2</v>
       </c>
       <c r="D9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.9234312032239489E-3</v>
       </c>
       <c r="E9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.5875706214689259E-3</v>
       </c>
       <c r="F9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.4963954685890828E-3</v>
       </c>
       <c r="G9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2838306731436502E-2</v>
       </c>
       <c r="H9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.136060894386299E-3</v>
       </c>
       <c r="I9" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4.7958681751106742E-3</v>
       </c>
       <c r="J9" s="15"/>
@@ -3491,31 +3457,31 @@
         <v>#VALUE!</v>
       </c>
       <c r="C13" s="15">
-        <f t="shared" ref="C13:I13" si="2">C12/C3</f>
+        <f t="shared" ref="C13:I13" si="3">C12/C3</f>
         <v>9.5418402120408932E-2</v>
       </c>
       <c r="D13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.10218767990788716</v>
       </c>
       <c r="E13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.3163841807909603E-2</v>
       </c>
       <c r="F13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.10427394438722966</v>
       </c>
       <c r="G13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.15475364330326163</v>
       </c>
       <c r="H13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1186964795432921</v>
       </c>
       <c r="I13" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.7879980324643388E-2</v>
       </c>
       <c r="J13" s="15"/>
@@ -3641,15 +3607,15 @@
       </c>
       <c r="P16" s="30">
         <f>Q101/I3</f>
-        <v>6.0544121987211019</v>
+        <v>6.2665381751106741</v>
       </c>
       <c r="Q16" s="30">
         <f>Q101/I28</f>
-        <v>18.001638025594151</v>
+        <v>18.632354091407677</v>
       </c>
       <c r="R16" s="31">
         <f>Q101/I107</f>
-        <v>10.827904112601715</v>
+        <v>11.207276982625908</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3757,13 +3723,13 @@
         <v>670000000</v>
       </c>
       <c r="L19" s="33">
-        <v>786000000</v>
+        <v>683000000</v>
       </c>
       <c r="M19" s="33">
-        <v>914000000</v>
+        <v>884900000</v>
       </c>
       <c r="N19" s="33">
-        <v>1924000000</v>
+        <v>1177000000</v>
       </c>
       <c r="O19" s="26">
         <f>I40-I56-I61</f>
@@ -3771,15 +3737,15 @@
       </c>
       <c r="P19" s="30">
         <f>Q101/J3</f>
-        <v>4.5545309898242365</v>
+        <v>4.6880854130634777</v>
       </c>
       <c r="Q19" s="37">
         <f>Q101/J28</f>
-        <v>11.53032318501171</v>
+        <v>11.853800521051408</v>
       </c>
       <c r="R19" s="31">
         <f>Q101/J106</f>
-        <v>125.85501022494887</v>
+        <v>139.91018982511051</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3800,40 +3766,40 @@
         <v>0.98720930232558146</v>
       </c>
       <c r="F20" s="15">
-        <f t="shared" ref="F20:I20" si="3">(F19/E19)-1</f>
+        <f t="shared" ref="F20:I20" si="4">(F19/E19)-1</f>
         <v>-0.53949678174370974</v>
       </c>
       <c r="G20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-0.95806861499364682</v>
       </c>
       <c r="H20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22.848484848484848</v>
       </c>
       <c r="I20" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.4345616264294794</v>
       </c>
       <c r="J20" s="16">
-        <f t="shared" ref="J20" si="4">(J19/I19)-1</f>
+        <f t="shared" ref="J20" si="5">(J19/I19)-1</f>
         <v>-0.14055438385055741</v>
       </c>
       <c r="K20" s="16">
-        <f t="shared" ref="K20" si="5">(K19/J19)-1</f>
+        <f t="shared" ref="K20" si="6">(K19/J19)-1</f>
         <v>0.17440841367221727</v>
       </c>
       <c r="L20" s="16">
-        <f t="shared" ref="L20" si="6">(L19/K19)-1</f>
-        <v>0.17313432835820897</v>
+        <f t="shared" ref="L20" si="7">(L19/K19)-1</f>
+        <v>1.9402985074626899E-2</v>
       </c>
       <c r="M20" s="16">
-        <f t="shared" ref="M20" si="7">(M19/L19)-1</f>
-        <v>0.1628498727735368</v>
+        <f t="shared" ref="M20" si="8">(M19/L19)-1</f>
+        <v>0.29560761346998543</v>
       </c>
       <c r="N20" s="16">
-        <f t="shared" ref="N20" si="8">(N19/M19)-1</f>
-        <v>1.1050328227571118</v>
+        <f t="shared" ref="N20" si="9">(N19/M19)-1</f>
+        <v>0.33009379590914234</v>
       </c>
     </row>
     <row r="21" spans="1:18" ht="20" x14ac:dyDescent="0.25">
@@ -3865,24 +3831,24 @@
         <v>0.81630000000000003</v>
       </c>
       <c r="J21" s="34">
-        <f t="shared" ref="J21:M21" si="9">J19/J3</f>
-        <v>0.52775208140610541</v>
+        <f t="shared" ref="J21:M21" si="10">J19/J3</f>
+        <v>0.52483900643974246</v>
       </c>
       <c r="K21" s="34">
-        <f t="shared" si="9"/>
-        <v>0.48063127690100432</v>
+        <f t="shared" si="10"/>
+        <v>0.48132183908045978</v>
       </c>
       <c r="L21" s="34">
-        <f t="shared" si="9"/>
-        <v>0.53651877133105808</v>
+        <f t="shared" si="10"/>
+        <v>0.45962314939434723</v>
       </c>
       <c r="M21" s="34">
-        <f t="shared" si="9"/>
-        <v>0.61383478844862327</v>
+        <f t="shared" si="10"/>
+        <v>0.59429147078576228</v>
       </c>
       <c r="N21" s="34">
         <f>N19/N3</f>
-        <v>0.87613843351548271</v>
+        <v>0.53597449908925321</v>
       </c>
       <c r="Q21" s="19" t="s">
         <v>165</v>
@@ -3919,13 +3885,13 @@
       <c r="I22" s="10">
         <v>328400000</v>
       </c>
-      <c r="Q22" s="41">
+      <c r="Q22" s="40">
         <f>(-1*I98)/Q101</f>
         <v>0</v>
       </c>
-      <c r="R22" s="42">
+      <c r="R22" s="41">
         <f>I107/Q101</f>
-        <v>9.2353976319034956E-2</v>
+        <v>8.922774029322654E-2</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -4102,19 +4068,19 @@
         <v>273500000</v>
       </c>
       <c r="J28" s="35">
-        <v>427000000</v>
+        <v>429900000</v>
       </c>
       <c r="K28" s="35">
-        <v>521000000</v>
+        <v>522300000</v>
       </c>
       <c r="L28" s="35">
-        <v>644000000</v>
+        <v>660400000</v>
       </c>
       <c r="M28" s="35">
         <v>687000000</v>
       </c>
       <c r="N28" s="35">
-        <v>1698000000</v>
+        <v>1013000000</v>
       </c>
     </row>
     <row r="29" spans="1:18" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -4135,40 +4101,40 @@
         <v>1.9881516587677726</v>
       </c>
       <c r="F29" s="15">
-        <f t="shared" ref="F29:I29" si="10">(F28/E28)-1</f>
+        <f t="shared" ref="F29:I29" si="11">(F28/E28)-1</f>
         <v>-0.60190325138778755</v>
       </c>
       <c r="G29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1.3764940239043826</v>
       </c>
       <c r="H29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1.0317460317460316</v>
       </c>
       <c r="I29" s="15">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>454.83333333333331</v>
       </c>
       <c r="J29" s="16">
-        <f t="shared" ref="J29" si="11">(J28/I28)-1</f>
-        <v>0.5612431444241317</v>
+        <f t="shared" ref="J29" si="12">(J28/I28)-1</f>
+        <v>0.57184643510054856</v>
       </c>
       <c r="K29" s="16">
-        <f t="shared" ref="K29" si="12">(K28/J28)-1</f>
-        <v>0.22014051522248246</v>
+        <f t="shared" ref="K29" si="13">(K28/J28)-1</f>
+        <v>0.21493370551290991</v>
       </c>
       <c r="L29" s="16">
-        <f t="shared" ref="L29" si="13">(L28/K28)-1</f>
-        <v>0.23608445297504788</v>
+        <f t="shared" ref="L29" si="14">(L28/K28)-1</f>
+        <v>0.26440742868083467</v>
       </c>
       <c r="M29" s="16">
-        <f t="shared" ref="M29" si="14">(M28/L28)-1</f>
-        <v>6.6770186335403769E-2</v>
+        <f t="shared" ref="M29" si="15">(M28/L28)-1</f>
+        <v>4.0278619018776496E-2</v>
       </c>
       <c r="N29" s="16">
-        <f t="shared" ref="N29" si="15">(N28/M28)-1</f>
-        <v>1.4716157205240177</v>
+        <f t="shared" ref="N29" si="16">(N28/M28)-1</f>
+        <v>0.47452692867540036</v>
       </c>
     </row>
     <row r="30" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -4201,23 +4167,23 @@
       </c>
       <c r="J30" s="36">
         <f>J28/J3</f>
-        <v>0.39500462534690101</v>
+        <v>0.39549218031278749</v>
       </c>
       <c r="K30" s="36">
-        <f t="shared" ref="K30:N30" si="16">K28/K3</f>
-        <v>0.37374461979913914</v>
+        <f t="shared" ref="K30:N30" si="17">K28/K3</f>
+        <v>0.3752155172413793</v>
       </c>
       <c r="L30" s="36">
-        <f t="shared" si="16"/>
-        <v>0.4395904436860068</v>
+        <f t="shared" si="17"/>
+        <v>0.44441453566621802</v>
       </c>
       <c r="M30" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.4613834788448623</v>
       </c>
       <c r="N30" s="36">
-        <f t="shared" si="16"/>
-        <v>0.77322404371584696</v>
+        <f t="shared" si="17"/>
+        <v>0.46129326047358832</v>
       </c>
     </row>
     <row r="31" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -4346,27 +4312,27 @@
         <v>#VALUE!</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" ref="D35:I35" si="17">(D34-C34)/C34</f>
+        <f t="shared" ref="D35:I35" si="18">(D34-C34)/C34</f>
         <v>0</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-0.106993006993007</v>
       </c>
       <c r="F35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.14643696162881753</v>
       </c>
       <c r="G35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>-1.366120218579235E-3</v>
       </c>
       <c r="H35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I35" s="22">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.37893296853625169</v>
       </c>
     </row>
@@ -5651,35 +5617,35 @@
         <v>103</v>
       </c>
       <c r="B80" s="15" t="e">
-        <f t="shared" ref="B80:I80" si="18">B79/B3</f>
+        <f t="shared" ref="B80:I80" si="19">B79/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7.9515335100340777E-3</v>
       </c>
       <c r="D80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.7869890616004603E-3</v>
       </c>
       <c r="E80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>9.9435028248587576E-3</v>
       </c>
       <c r="F80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.1071060762100926E-2</v>
       </c>
       <c r="G80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.3879250520471894E-2</v>
       </c>
       <c r="H80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1.2607040913415794E-2</v>
       </c>
       <c r="I80" s="15">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.362026561731432E-3</v>
       </c>
       <c r="J80" s="15"/>
@@ -5770,10 +5736,10 @@
       <c r="I83" s="1">
         <v>-22900000</v>
       </c>
-      <c r="P83" s="67" t="s">
+      <c r="P83" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="Q83" s="68"/>
+      <c r="Q83" s="67"/>
     </row>
     <row r="84" spans="1:17" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -5803,10 +5769,10 @@
       <c r="I84" s="1">
         <v>18900000</v>
       </c>
-      <c r="P84" s="69" t="s">
+      <c r="P84" s="68" t="s">
         <v>124</v>
       </c>
-      <c r="Q84" s="69"/>
+      <c r="Q84" s="68"/>
     </row>
     <row r="85" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -5836,10 +5802,10 @@
       <c r="I85" s="1">
         <v>4400000</v>
       </c>
-      <c r="P85" s="50" t="s">
+      <c r="P85" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="Q85" s="51">
+      <c r="Q85" s="50">
         <f>I17</f>
         <v>328400000</v>
       </c>
@@ -5872,10 +5838,10 @@
       <c r="I86" s="1">
         <v>5400000</v>
       </c>
-      <c r="P86" s="50" t="s">
+      <c r="P86" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="Q86" s="51">
+      <c r="Q86" s="50">
         <f>I56</f>
         <v>0</v>
       </c>
@@ -5908,10 +5874,10 @@
       <c r="I87" s="10">
         <v>454700000</v>
       </c>
-      <c r="P87" s="50" t="s">
+      <c r="P87" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="Q87" s="51">
+      <c r="Q87" s="50">
         <f>I61</f>
         <v>241900000</v>
       </c>
@@ -5944,10 +5910,10 @@
       <c r="I88" s="1">
         <v>-336900000</v>
       </c>
-      <c r="P88" s="52" t="s">
+      <c r="P88" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="Q88" s="53">
+      <c r="Q88" s="52">
         <f>Q85/(Q86+Q87)</f>
         <v>1.3575857792476229</v>
       </c>
@@ -5957,35 +5923,35 @@
         <v>104</v>
       </c>
       <c r="B89" s="15" t="e">
-        <f t="shared" ref="B89:I89" si="19">(-1*B88)/B3</f>
+        <f t="shared" ref="B89:I89" si="20">(-1*B88)/B3</f>
         <v>#VALUE!</v>
       </c>
       <c r="C89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.11851571374479364</v>
       </c>
       <c r="D89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.17990788716177317</v>
       </c>
       <c r="E89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.17717514124293784</v>
       </c>
       <c r="F89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.48609680741503603</v>
       </c>
       <c r="G89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.43025676613462871</v>
       </c>
       <c r="H89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.31374881065651761</v>
       </c>
       <c r="I89" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.41428922774225285</v>
       </c>
       <c r="J89" s="15"/>
@@ -5994,10 +5960,10 @@
       <c r="M89" s="15"/>
       <c r="N89" s="15"/>
       <c r="O89" s="15"/>
-      <c r="P89" s="50" t="s">
+      <c r="P89" s="49" t="s">
         <v>105</v>
       </c>
-      <c r="Q89" s="51">
+      <c r="Q89" s="50">
         <f>I27</f>
         <v>61900000</v>
       </c>
@@ -6030,10 +5996,10 @@
       <c r="I90" s="1">
         <v>-47100000</v>
       </c>
-      <c r="P90" s="50" t="s">
+      <c r="P90" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="Q90" s="51">
+      <c r="Q90" s="50">
         <f>I25</f>
         <v>335400000</v>
       </c>
@@ -6066,10 +6032,10 @@
       <c r="I91" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P91" s="52" t="s">
+      <c r="P91" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="Q91" s="53">
+      <c r="Q91" s="52">
         <f>Q89/Q90</f>
         <v>0.18455575432319618</v>
       </c>
@@ -6102,10 +6068,10 @@
       <c r="I92" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P92" s="52" t="s">
+      <c r="P92" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="Q92" s="53">
+      <c r="Q92" s="52">
         <f>Q88*(1-Q91)</f>
         <v>1.1070355117001338</v>
       </c>
@@ -6138,10 +6104,10 @@
       <c r="I93" s="1">
         <v>-364700000</v>
       </c>
-      <c r="P93" s="69" t="s">
+      <c r="P93" s="68" t="s">
         <v>131</v>
       </c>
-      <c r="Q93" s="69"/>
+      <c r="Q93" s="68"/>
     </row>
     <row r="94" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -6171,12 +6137,12 @@
       <c r="I94" s="10">
         <v>-364700000</v>
       </c>
-      <c r="P94" s="50" t="s">
+      <c r="P94" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="Q94" s="54">
+      <c r="Q94" s="53">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0410000000000001E-2</v>
+        <v>4.0480000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6207,10 +6173,10 @@
       <c r="I95" s="1">
         <v>-13000000</v>
       </c>
-      <c r="P95" s="55" t="s">
+      <c r="P95" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="Q95" s="56" cm="1">
+      <c r="Q95" s="55" cm="1">
         <f t="array" ref="Q95">_FV(A1,"Beta")</f>
         <v>1.8274999999999999</v>
       </c>
@@ -6243,10 +6209,10 @@
       <c r="I96" s="1">
         <v>3200000</v>
       </c>
-      <c r="P96" s="50" t="s">
+      <c r="P96" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="Q96" s="57">
+      <c r="Q96" s="56">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -6278,12 +6244,12 @@
       <c r="I97" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P97" s="52" t="s">
+      <c r="P97" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="Q97" s="53">
+      <c r="Q97" s="52">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>0.120070725</v>
+        <v>0.1200128</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6314,10 +6280,10 @@
       <c r="I98" s="1">
         <v>0</v>
       </c>
-      <c r="P98" s="69" t="s">
+      <c r="P98" s="68" t="s">
         <v>136</v>
       </c>
-      <c r="Q98" s="69"/>
+      <c r="Q98" s="68"/>
     </row>
     <row r="99" spans="1:17" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -6347,10 +6313,10 @@
       <c r="I99" s="1">
         <v>-12500000</v>
       </c>
-      <c r="P99" s="50" t="s">
+      <c r="P99" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="Q99" s="51">
+      <c r="Q99" s="50">
         <f>Q86+Q87</f>
         <v>241900000</v>
       </c>
@@ -6383,12 +6349,12 @@
       <c r="I100" s="10">
         <v>-12500000</v>
       </c>
-      <c r="P100" s="52" t="s">
+      <c r="P100" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="Q100" s="53">
+      <c r="Q100" s="52">
         <f>Q99/Q103</f>
-        <v>4.6831307396907239E-2</v>
+        <v>4.5317881241973959E-2</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6419,12 +6385,12 @@
       <c r="I101" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="P101" s="55" t="s">
+      <c r="P101" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="Q101" s="44" cm="1">
+      <c r="Q101" s="43" cm="1">
         <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>4923448000</v>
+        <v>5095948844</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6455,12 +6421,12 @@
       <c r="I102" s="10">
         <v>76000000</v>
       </c>
-      <c r="P102" s="52" t="s">
+      <c r="P102" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="Q102" s="53">
+      <c r="Q102" s="52">
         <f>Q101/Q103</f>
-        <v>0.95316869260309278</v>
+        <v>0.954682118758026</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6491,12 +6457,12 @@
       <c r="I103" s="1">
         <v>113000000</v>
       </c>
-      <c r="P103" s="52" t="s">
+      <c r="P103" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="Q103" s="58">
+      <c r="Q103" s="57">
         <f>Q99+Q101</f>
-        <v>5165348000</v>
+        <v>5337848844</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6527,37 +6493,37 @@
       <c r="I104" s="11">
         <v>189000000</v>
       </c>
-      <c r="P104" s="69" t="s">
+      <c r="P104" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="Q104" s="69"/>
+      <c r="Q104" s="68"/>
     </row>
     <row r="105" spans="1:17" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
         <v>161</v>
       </c>
       <c r="C105" s="1">
-        <f t="shared" ref="C105:H105" si="20">(C22*(1-$Q$91))+C77+C88+C81</f>
+        <f t="shared" ref="C105:H105" si="21">(C22*(1-$Q$91))+C77+C88+C81</f>
         <v>12526654.74060823</v>
       </c>
       <c r="D105" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>561955.87358377874</v>
       </c>
       <c r="E105" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>17129844.961240321</v>
       </c>
       <c r="F105" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-129421914.13237925</v>
       </c>
       <c r="G105" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-118147107.93082887</v>
       </c>
       <c r="H105" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>-103287328.56290996</v>
       </c>
       <c r="I105" s="1">
@@ -6566,33 +6532,33 @@
       </c>
       <c r="J105" s="27">
         <f>I105*(1+$Q$106)</f>
-        <v>509257699.37006921</v>
+        <v>509311681.62502742</v>
       </c>
       <c r="K105" s="27">
-        <f t="shared" ref="K105:N105" si="21">J105*(1+$Q$106)</f>
-        <v>627506637.48042405</v>
+        <f t="shared" ref="K105:N105" si="22">J105*(1+$Q$106)</f>
+        <v>627639678.2521174</v>
       </c>
       <c r="L105" s="27">
-        <f t="shared" si="21"/>
-        <v>773212816.55448484</v>
+        <f t="shared" si="22"/>
+        <v>773458728.57172608</v>
       </c>
       <c r="M105" s="27">
-        <f t="shared" si="21"/>
-        <v>952751770.21975398</v>
+        <f t="shared" si="22"/>
+        <v>953155808.23346853</v>
       </c>
       <c r="N105" s="27">
-        <f t="shared" si="21"/>
-        <v>1173979422.2525163</v>
+        <f t="shared" si="22"/>
+        <v>1174601774.0944622</v>
       </c>
       <c r="O105" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="P105" s="59" t="s">
+      <c r="P105" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="Q105" s="60">
+      <c r="Q105" s="59">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>0.16629157631587696</v>
+        <v>0.16474257803195774</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6601,61 +6567,61 @@
       </c>
       <c r="B106" s="1"/>
       <c r="C106" s="15" t="e">
-        <f t="shared" ref="C106:I106" si="22">(C107/B107)-1</f>
+        <f t="shared" ref="C106:I106" si="23">(C107/B107)-1</f>
         <v>#VALUE!</v>
       </c>
       <c r="D106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.62845849802371534</v>
       </c>
       <c r="E106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.95744680851063824</v>
       </c>
       <c r="F106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-7.8586956521739131</v>
       </c>
       <c r="G106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-1.0499207606973058</v>
       </c>
       <c r="H106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>3.1904761904761907</v>
       </c>
       <c r="I106" s="15">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>16.223484848484848</v>
       </c>
       <c r="J106" s="38">
-        <v>39120000</v>
+        <v>36423000</v>
       </c>
       <c r="K106" s="38">
-        <v>67915000</v>
+        <v>60749000</v>
       </c>
       <c r="L106" s="38">
-        <v>266700000</v>
+        <v>257100000</v>
       </c>
       <c r="M106" s="38">
-        <v>480900000</v>
+        <v>451400000</v>
       </c>
       <c r="N106" s="38">
-        <v>1167000000</v>
+        <v>769800000</v>
       </c>
       <c r="O106" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="P106" s="61" t="s">
+      <c r="P106" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="Q106" s="62">
+      <c r="Q106" s="61">
         <f>(SUM(J4:N4)/5)</f>
-        <v>0.23219862607207306</v>
+        <v>0.23232924139801506</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="A107" s="40" t="s">
+      <c r="A107" s="39" t="s">
         <v>159</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -6686,135 +6652,135 @@
       <c r="K107" s="28"/>
       <c r="L107" s="28"/>
       <c r="M107" s="28"/>
-      <c r="N107" s="39">
-        <f>N106*(1+Q107)/(Q108-Q107)</f>
-        <v>8466003644.3063278</v>
+      <c r="N107" s="43">
+        <f>N105*(1+Q107)/(Q108-Q107)</f>
+        <v>8615604745.5449715</v>
       </c>
       <c r="O107" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="P107" s="63" t="s">
+      <c r="P107" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="Q107" s="64">
+      <c r="Q107" s="63">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="J108" s="39">
-        <f t="shared" ref="J108:M108" si="23">J107+J106</f>
-        <v>39120000</v>
-      </c>
-      <c r="K108" s="39">
-        <f t="shared" si="23"/>
-        <v>67915000</v>
-      </c>
-      <c r="L108" s="39">
-        <f t="shared" si="23"/>
-        <v>266700000</v>
-      </c>
-      <c r="M108" s="39">
-        <f t="shared" si="23"/>
-        <v>480900000</v>
-      </c>
-      <c r="N108" s="39">
-        <f>N107+N106</f>
-        <v>9633003644.3063278</v>
+      <c r="J108" s="43">
+        <f t="shared" ref="J108:M108" si="24">J107+J105</f>
+        <v>509311681.62502742</v>
+      </c>
+      <c r="K108" s="43">
+        <f t="shared" si="24"/>
+        <v>627639678.2521174</v>
+      </c>
+      <c r="L108" s="43">
+        <f t="shared" si="24"/>
+        <v>773458728.57172608</v>
+      </c>
+      <c r="M108" s="43">
+        <f t="shared" si="24"/>
+        <v>953155808.23346853</v>
+      </c>
+      <c r="N108" s="43">
+        <f>N107+N105</f>
+        <v>9790206519.6394329</v>
       </c>
       <c r="O108" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="P108" s="65" t="s">
+      <c r="P108" s="64" t="s">
         <v>146</v>
       </c>
-      <c r="Q108" s="62">
+      <c r="Q108" s="61">
         <f>Q105</f>
-        <v>0.16629157631587696</v>
+        <v>0.16474257803195774</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
-      <c r="J109" s="66" t="s">
+      <c r="J109" s="65" t="s">
         <v>147</v>
       </c>
-      <c r="K109" s="66"/>
+      <c r="K109" s="65"/>
     </row>
     <row r="110" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="J110" s="43" t="s">
+      <c r="J110" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="K110" s="44">
+      <c r="K110" s="43">
         <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>4975515053.8507719</v>
+        <v>6474430101.4067383</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="J111" s="43" t="s">
+      <c r="J111" s="42" t="s">
         <v>149</v>
       </c>
-      <c r="K111" s="44">
+      <c r="K111" s="43">
         <f>I40</f>
         <v>189000000</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="20" x14ac:dyDescent="0.25">
-      <c r="J112" s="43" t="s">
+      <c r="J112" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="K112" s="44">
+      <c r="K112" s="43">
         <f>Q99</f>
         <v>241900000</v>
       </c>
     </row>
     <row r="113" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J113" s="43" t="s">
+      <c r="J113" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="K113" s="44">
+      <c r="K113" s="43">
         <f>K110+K111-K112</f>
-        <v>4922615053.8507719</v>
+        <v>6421530101.4067383</v>
       </c>
     </row>
     <row r="114" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J114" s="43" t="s">
+      <c r="J114" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="K114" s="43">
+      <c r="K114" s="42">
         <f>I34*(1+(5*0.05))</f>
         <v>252000000</v>
       </c>
     </row>
     <row r="115" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J115" s="45" t="s">
+      <c r="J115" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="K115" s="46">
+      <c r="K115" s="45">
         <f>K113/K114</f>
-        <v>19.534186721630046</v>
+        <v>25.482262307169595</v>
       </c>
     </row>
     <row r="116" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J116" s="43" t="s">
+      <c r="J116" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="K116" s="47" cm="1">
+      <c r="K116" s="46" cm="1">
         <f t="array" ref="K116">_FV(A1,"Previous close",TRUE)</f>
-        <v>26.94</v>
+        <v>27.4</v>
       </c>
     </row>
     <row r="117" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J117" s="45" t="s">
+      <c r="J117" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="K117" s="48">
+      <c r="K117" s="47">
         <f>K115/K116-1</f>
-        <v>-0.27490027016963459</v>
+        <v>-6.9990426745635159E-2</v>
       </c>
     </row>
     <row r="118" spans="10:11" ht="20" x14ac:dyDescent="0.25">
-      <c r="J118" s="45" t="s">
+      <c r="J118" s="44" t="s">
         <v>154</v>
       </c>
-      <c r="K118" s="49" t="str">
+      <c r="K118" s="48" t="str">
         <f>IF(K115&gt;K116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Technology/Hardware/Livent.xlsx
+++ b/Technology/Hardware/Livent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/Hardware/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6147DC5A-C13A-3A40-B4C1-175E32F87D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420E75C7-802A-6444-A53D-1F134AD46D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2146,6 +2146,7 @@
       <sheetName val="Real Estate"/>
       <sheetName val="Fashion + Beauty"/>
       <sheetName val="My Stocks"/>
+      <sheetName val="Profitable Software"/>
       <sheetName val="Compounders"/>
       <sheetName val="GARP"/>
       <sheetName val="Value"/>
@@ -2157,7 +2158,7 @@
       <sheetData sheetId="0">
         <row r="8">
           <cell r="C8">
-            <v>4.0480000000000002E-2</v>
+            <v>3.9120000000000002E-2</v>
           </cell>
         </row>
       </sheetData>
@@ -2176,6 +2177,7 @@
       <sheetData sheetId="13"/>
       <sheetData sheetId="14"/>
       <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2303,9 +2305,11 @@
     <v>Powered by Refinitiv</v>
     <v>36.380000000000003</v>
     <v>18.260000000000002</v>
-    <v>1.8274999999999999</v>
-    <v>0.96</v>
-    <v>3.5035999999999998E-2</v>
+    <v>1.8220000000000001</v>
+    <v>1.1200000000000001</v>
+    <v>4.4889999999999999E-2</v>
+    <v>-7.0000000000000007E-2</v>
+    <v>-2.6850000000000003E-3</v>
     <v>USD</v>
     <v>Livent Corporation is a fully integrated lithium company. The Company manufactures lithium for use in a range of lithium products, which are used primarily in lithium-based batteries, specialty polymers and chemical synthesis applications. It is focused on supplying high performance lithium compounds to the electric vehicles (EV) and broader battery markets. The Company also supplies butyllithium, which is used in the production of polymers and pharmaceutical products, as well as a range of specialty lithium compounds including high purity lithium metal, which is used in non-rechargeable batteries and in the production of lightweight materials for aerospace applications. Its product category includes Lithium Hydroxide, Butyllithium, High Purity Lithium Metal, Lithium Carbonate, and Lithium Chloride. It serves a variety of industrial, pharmaceutical, aerospace, electronics, agricultural and polymer applications.</v>
     <v>1350</v>
@@ -2313,24 +2317,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>1818 MARKET STREET, PHILADELPHIA, PA, 19103 US</v>
-    <v>28.37</v>
+    <v>26.59</v>
     <v>Chemicals</v>
     <v>Stock</v>
-    <v>45117.995933506252</v>
+    <v>45132.958333356248</v>
     <v>0</v>
-    <v>27.26</v>
-    <v>5095948844</v>
+    <v>25.65</v>
+    <v>4684463553</v>
     <v>LIVENT CORPORATION</v>
     <v>LIVENT CORPORATION</v>
-    <v>27.33</v>
-    <v>17.498100000000001</v>
-    <v>27.4</v>
-    <v>28.36</v>
+    <v>25.79</v>
+    <v>15.3941</v>
+    <v>24.95</v>
+    <v>26.07</v>
+    <v>26</v>
     <v>179687900</v>
     <v>LTHM</v>
     <v>LIVENT CORPORATION (XNYS:LTHM)</v>
-    <v>1868</v>
-    <v>2383348</v>
+    <v>4082168</v>
+    <v>2339048</v>
     <v>2018</v>
   </rv>
   <rv s="2">
@@ -2362,6 +2367,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2382,6 +2389,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2398,7 +2406,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2409,13 +2417,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2481,13 +2492,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2532,6 +2549,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2539,6 +2559,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2903,7 +2926,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="F101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K130" sqref="K130"/>
+      <selection pane="bottomRight" activeCell="I122" sqref="I122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3607,15 +3630,15 @@
       </c>
       <c r="P16" s="30">
         <f>Q101/I3</f>
-        <v>6.2665381751106741</v>
+        <v>5.7605306849483524</v>
       </c>
       <c r="Q16" s="30">
         <f>Q101/I28</f>
-        <v>18.632354091407677</v>
+        <v>17.127837488117002</v>
       </c>
       <c r="R16" s="31">
         <f>Q101/I107</f>
-        <v>11.207276982625908</v>
+        <v>10.302317028810204</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -3737,15 +3760,15 @@
       </c>
       <c r="P19" s="30">
         <f>Q101/J3</f>
-        <v>4.6880854130634777</v>
+        <v>4.3095340873965045</v>
       </c>
       <c r="Q19" s="37">
         <f>Q101/J28</f>
-        <v>11.853800521051408</v>
+        <v>10.896635387299371</v>
       </c>
       <c r="R19" s="31">
         <f>Q101/J106</f>
-        <v>139.91018982511051</v>
+        <v>128.6127873321802</v>
       </c>
     </row>
     <row r="20" spans="1:18" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -3891,7 +3914,7 @@
       </c>
       <c r="R22" s="41">
         <f>I107/Q101</f>
-        <v>8.922774029322654E-2</v>
+        <v>9.7065543333943405E-2</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="19" x14ac:dyDescent="0.25">
@@ -6142,7 +6165,7 @@
       </c>
       <c r="Q94" s="53">
         <f>[1]Treasuries!$C$8</f>
-        <v>4.0480000000000002E-2</v>
+        <v>3.9120000000000002E-2</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6178,7 +6201,7 @@
       </c>
       <c r="Q95" s="55" cm="1">
         <f t="array" ref="Q95">_FV(A1,"Beta")</f>
-        <v>1.8274999999999999</v>
+        <v>1.8220000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6249,7 +6272,7 @@
       </c>
       <c r="Q97" s="52">
         <f>(Q94)+((Q95)*(Q96-Q94))</f>
-        <v>0.1200128</v>
+        <v>0.12089136000000002</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6354,7 +6377,7 @@
       </c>
       <c r="Q100" s="52">
         <f>Q99/Q103</f>
-        <v>4.5317881241973959E-2</v>
+        <v>4.9103156394677883E-2</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6390,7 +6413,7 @@
       </c>
       <c r="Q101" s="43" cm="1">
         <f t="array" ref="Q101">_FV(A1,"Market cap",TRUE)</f>
-        <v>5095948844</v>
+        <v>4684463553</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6426,7 +6449,7 @@
       </c>
       <c r="Q102" s="52">
         <f>Q101/Q103</f>
-        <v>0.954682118758026</v>
+        <v>0.95089684360532212</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6462,7 +6485,7 @@
       </c>
       <c r="Q103" s="57">
         <f>Q99+Q101</f>
-        <v>5337848844</v>
+        <v>4926363553</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -6558,7 +6581,7 @@
       </c>
       <c r="Q105" s="59">
         <f>(Q100*Q92)+(Q102*Q97)</f>
-        <v>0.16474257803195774</v>
+        <v>0.16931415050862864</v>
       </c>
     </row>
     <row r="106" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6654,7 +6677,7 @@
       <c r="M107" s="28"/>
       <c r="N107" s="43">
         <f>N105*(1+Q107)/(Q108-Q107)</f>
-        <v>8615604745.5449715</v>
+        <v>8342680286.0530128</v>
       </c>
       <c r="O107" s="29" t="s">
         <v>144</v>
@@ -6685,7 +6708,7 @@
       </c>
       <c r="N108" s="43">
         <f>N107+N105</f>
-        <v>9790206519.6394329</v>
+        <v>9517282060.1474743</v>
       </c>
       <c r="O108" s="29" t="s">
         <v>141</v>
@@ -6695,7 +6718,7 @@
       </c>
       <c r="Q108" s="61">
         <f>Q105</f>
-        <v>0.16474257803195774</v>
+        <v>0.16931415050862864</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="19" x14ac:dyDescent="0.25">
@@ -6710,7 +6733,7 @@
       </c>
       <c r="K110" s="43">
         <f>NPV(Q108,J108,K108,L108,M108,N108)</f>
-        <v>6474430101.4067383</v>
+        <v>6241907051.0710859</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="20" x14ac:dyDescent="0.25">
@@ -6737,7 +6760,7 @@
       </c>
       <c r="K113" s="43">
         <f>K110+K111-K112</f>
-        <v>6421530101.4067383</v>
+        <v>6189007051.0710859</v>
       </c>
     </row>
     <row r="114" spans="10:11" ht="20" x14ac:dyDescent="0.25">
@@ -6755,7 +6778,7 @@
       </c>
       <c r="K115" s="45">
         <f>K113/K114</f>
-        <v>25.482262307169595</v>
+        <v>24.559551789964626</v>
       </c>
     </row>
     <row r="116" spans="10:11" ht="20" x14ac:dyDescent="0.25">
@@ -6764,7 +6787,7 @@
       </c>
       <c r="K116" s="46" cm="1">
         <f t="array" ref="K116">_FV(A1,"Previous close",TRUE)</f>
-        <v>27.4</v>
+        <v>24.95</v>
       </c>
     </row>
     <row r="117" spans="10:11" ht="20" x14ac:dyDescent="0.25">
@@ -6773,7 +6796,7 @@
       </c>
       <c r="K117" s="47">
         <f>K115/K116-1</f>
-        <v>-6.9990426745635159E-2</v>
+        <v>-1.5649226855125153E-2</v>
       </c>
     </row>
     <row r="118" spans="10:11" ht="20" x14ac:dyDescent="0.25">
